--- a/goTripcyContent/resources/excel/data.xlsx
+++ b/goTripcyContent/resources/excel/data.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="3495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="3495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
     <sheet name="outbound" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="inbound" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="C1:H10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="204">
   <si>
     <t>Going</t>
   </si>
@@ -593,6 +593,42 @@
   </si>
   <si>
     <t>cities_included</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>05 Nights /06 Days</t>
+  </si>
+  <si>
+    <t>Hotel, Breakfast, Transfers, Sightseeing</t>
+  </si>
+  <si>
+    <t>Cochin 01 Night, Munnar 02 nights, Thekkady 01 night, Alleepey 01 night</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Goa 04 nights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North East </t>
+  </si>
+  <si>
+    <t>Darjeeling 02 nights, Gangtok 03 nights</t>
+  </si>
+  <si>
+    <t>Golden Triangle</t>
+  </si>
+  <si>
+    <t>Delhi 01 night, 02 nights Jaipur, 02 nights Agra</t>
+  </si>
+  <si>
+    <t>Gangtok</t>
+  </si>
+  <si>
+    <t>GT</t>
   </si>
 </sst>
 </file>
@@ -2526,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2663,12 +2699,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2">
+        <v>12999</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3">
+        <v>8999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4">
+        <v>13999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5">
+        <v>9999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/goTripcyContent/resources/excel/data.xlsx
+++ b/goTripcyContent/resources/excel/data.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="3495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="3495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
     <sheet name="outbound" sheetId="2" r:id="rId2"/>
     <sheet name="inbound" sheetId="3" r:id="rId3"/>
+    <sheet name="trending" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="C1:H10"/>
+  <oleSize ref="C1:F10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="214">
   <si>
     <t>Going</t>
   </si>
@@ -629,6 +630,36 @@
   </si>
   <si>
     <t>GT</t>
+  </si>
+  <si>
+    <t>Phuket</t>
+  </si>
+  <si>
+    <t>Phuket 04 nights</t>
+  </si>
+  <si>
+    <t>Amazing Australia</t>
+  </si>
+  <si>
+    <t>Sydney 02 nights, Goldcoast 03 nights, Malnourne 02 nights</t>
+  </si>
+  <si>
+    <t>Nepal Tour</t>
+  </si>
+  <si>
+    <t>Kathmandu 03 nights, Pokhra 02 nights</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>Backwater tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munnar 02 nights, Thekkady 01 night, Alleepey 01 night</t>
+  </si>
+  <si>
+    <t>Backwater_tour</t>
   </si>
 </sst>
 </file>
@@ -2701,7 +2732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2815,4 +2848,126 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2">
+        <v>34999</v>
+      </c>
+      <c r="D2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3">
+        <v>52999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4">
+        <v>8999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5">
+        <v>12999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/goTripcyContent/resources/excel/data.xlsx
+++ b/goTripcyContent/resources/excel/data.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="3495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="3495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
     <sheet name="outbound" sheetId="2" r:id="rId2"/>
     <sheet name="inbound" sheetId="3" r:id="rId3"/>
     <sheet name="trending" sheetId="4" r:id="rId4"/>
+    <sheet name="searchresults" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="C1:F10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="255">
   <si>
     <t>Going</t>
   </si>
@@ -660,13 +660,136 @@
   </si>
   <si>
     <t>Backwater_tour</t>
+  </si>
+  <si>
+    <t>Exclusion</t>
+  </si>
+  <si>
+    <t>Itinerary</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Nights</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>Dubai Delight</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Dubai 4N</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Amazing Thailand</t>
+  </si>
+  <si>
+    <t>Bangkok 2 N, Pattaya 02 N</t>
+  </si>
+  <si>
+    <t>Unlimited Thailand</t>
+  </si>
+  <si>
+    <t>Bangkok 2 N, Pattaya 03 N</t>
+  </si>
+  <si>
+    <t>Dubai;;;UAE</t>
+  </si>
+  <si>
+    <t>Point 1;;;Point 2;;;Point3</t>
+  </si>
+  <si>
+    <t>Meals</t>
+  </si>
+  <si>
+    <t>Rates</t>
+  </si>
+  <si>
+    <t>Search_keys</t>
+  </si>
+  <si>
+    <t>Package_Name</t>
+  </si>
+  <si>
+    <t>Return_Airfare</t>
+  </si>
+  <si>
+    <t>Airport_Transfers</t>
+  </si>
+  <si>
+    <t>Intercity_Transfers</t>
+  </si>
+  <si>
+    <t>Sight_seeing</t>
+  </si>
+  <si>
+    <t>Other_Inclusions</t>
+  </si>
+  <si>
+    <t>Cities_covered</t>
+  </si>
+  <si>
+    <t>Package_category</t>
+  </si>
+  <si>
+    <t>TandC</t>
+  </si>
+  <si>
+    <t>Cancellation_Policy</t>
+  </si>
+  <si>
+    <t>Package_id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>standard,deluxe,luxury</t>
+  </si>
+  <si>
+    <t>34999,39999,44999</t>
+  </si>
+  <si>
+    <t>25999,31999,38999</t>
+  </si>
+  <si>
+    <t>31999,38999,42999</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,13 +797,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -692,14 +827,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -995,14 +1137,14 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1018,7 +1160,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1029,7 +1171,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1040,7 +1182,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1050,9 +1192,6 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,9 +1200,6 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1072,9 +1208,6 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,9 +1216,6 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1094,9 +1224,6 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,9 +1232,6 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1116,9 +1240,6 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,9 +1248,6 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1138,9 +1256,6 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,1443 +1264,868 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
+    <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
+    <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
-      </c>
+    <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>42</v>
-      </c>
+    <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>44</v>
-      </c>
+    <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
+    <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>48</v>
-      </c>
+    <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>51</v>
-      </c>
+    <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
+    <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>55</v>
-      </c>
+    <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>56</v>
-      </c>
+    <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
+    <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>58</v>
-      </c>
+    <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>59</v>
-      </c>
+    <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>60</v>
-      </c>
+    <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
+    <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>62</v>
-      </c>
+    <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>63</v>
-      </c>
+    <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>64</v>
-      </c>
+    <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>65</v>
-      </c>
+    <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>66</v>
-      </c>
+    <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>67</v>
-      </c>
+    <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>68</v>
-      </c>
+    <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>69</v>
-      </c>
+    <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>70</v>
-      </c>
+    <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>71</v>
-      </c>
+    <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>72</v>
-      </c>
+    <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>73</v>
-      </c>
+    <row r="72" spans="2:2">
       <c r="B72" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>74</v>
-      </c>
+    <row r="73" spans="2:2">
       <c r="B73" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>75</v>
-      </c>
+    <row r="74" spans="2:2">
       <c r="B74" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>76</v>
-      </c>
+    <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>77</v>
-      </c>
+    <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>78</v>
-      </c>
+    <row r="77" spans="2:2">
       <c r="B77" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>79</v>
-      </c>
+    <row r="78" spans="2:2">
       <c r="B78" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>80</v>
-      </c>
+    <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="80" spans="2:2">
       <c r="B80" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>82</v>
-      </c>
+    <row r="81" spans="2:2">
       <c r="B81" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>83</v>
-      </c>
+    <row r="82" spans="2:2">
       <c r="B82" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
-        <v>84</v>
-      </c>
+    <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
-        <v>85</v>
-      </c>
+    <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="85" spans="2:2">
       <c r="B85" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="86" spans="2:2">
       <c r="B86" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
-        <v>88</v>
-      </c>
+    <row r="87" spans="2:2">
       <c r="B87" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>89</v>
-      </c>
+    <row r="88" spans="2:2">
       <c r="B88" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>90</v>
-      </c>
+    <row r="89" spans="2:2">
       <c r="B89" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
-        <v>91</v>
-      </c>
+    <row r="90" spans="2:2">
       <c r="B90" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
-        <v>92</v>
-      </c>
+    <row r="91" spans="2:2">
       <c r="B91" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1" t="s">
-        <v>93</v>
-      </c>
+    <row r="92" spans="2:2">
       <c r="B92" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1" t="s">
-        <v>94</v>
-      </c>
+    <row r="93" spans="2:2">
       <c r="B93" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
-        <v>95</v>
-      </c>
+    <row r="94" spans="2:2">
       <c r="B94" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="1" t="s">
-        <v>96</v>
-      </c>
+    <row r="95" spans="2:2">
       <c r="B95" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
-        <v>97</v>
-      </c>
+    <row r="96" spans="2:2">
       <c r="B96" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
-        <v>98</v>
-      </c>
+    <row r="97" spans="2:2">
       <c r="B97" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1" t="s">
-        <v>99</v>
-      </c>
+    <row r="98" spans="2:2">
       <c r="B98" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="1" t="s">
-        <v>99</v>
-      </c>
+    <row r="99" spans="2:2">
       <c r="B99" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1" t="s">
-        <v>100</v>
-      </c>
+    <row r="100" spans="2:2">
       <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="1" t="s">
-        <v>101</v>
-      </c>
+    <row r="101" spans="2:2">
       <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
-        <v>102</v>
-      </c>
+    <row r="102" spans="2:2">
       <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
-        <v>103</v>
-      </c>
+    <row r="103" spans="2:2">
       <c r="B103" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
-        <v>104</v>
-      </c>
+    <row r="104" spans="2:2">
       <c r="B104" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="105" spans="2:2">
       <c r="B105" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>106</v>
-      </c>
+    <row r="106" spans="2:2">
       <c r="B106" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
-        <v>107</v>
-      </c>
+    <row r="107" spans="2:2">
       <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>108</v>
-      </c>
+    <row r="108" spans="2:2">
       <c r="B108" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
-        <v>109</v>
-      </c>
+    <row r="109" spans="2:2">
       <c r="B109" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="1" t="s">
-        <v>110</v>
-      </c>
+    <row r="110" spans="2:2">
       <c r="B110" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="1" t="s">
-        <v>111</v>
-      </c>
+    <row r="111" spans="2:2">
       <c r="B111" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
-        <v>112</v>
-      </c>
+    <row r="112" spans="2:2">
       <c r="B112" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1" t="s">
-        <v>113</v>
-      </c>
+    <row r="113" spans="2:2">
       <c r="B113" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
-        <v>114</v>
-      </c>
+    <row r="114" spans="2:2">
       <c r="B114" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
-        <v>115</v>
-      </c>
+    <row r="115" spans="2:2">
       <c r="B115" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1" t="s">
-        <v>116</v>
-      </c>
+    <row r="116" spans="2:2">
       <c r="B116" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1" t="s">
-        <v>117</v>
-      </c>
+    <row r="117" spans="2:2">
       <c r="B117" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1" t="s">
-        <v>118</v>
-      </c>
+    <row r="118" spans="2:2">
       <c r="B118" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1" t="s">
-        <v>119</v>
-      </c>
+    <row r="119" spans="2:2">
       <c r="B119" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1" t="s">
-        <v>120</v>
-      </c>
+    <row r="120" spans="2:2">
       <c r="B120" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1" t="s">
-        <v>121</v>
-      </c>
+    <row r="121" spans="2:2">
       <c r="B121" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
-        <v>122</v>
-      </c>
+    <row r="122" spans="2:2">
       <c r="B122" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1" t="s">
-        <v>123</v>
-      </c>
+    <row r="123" spans="2:2">
       <c r="B123" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1" t="s">
-        <v>124</v>
-      </c>
+    <row r="124" spans="2:2">
       <c r="B124" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1" t="s">
-        <v>125</v>
-      </c>
+    <row r="125" spans="2:2">
       <c r="B125" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1" t="s">
-        <v>126</v>
-      </c>
+    <row r="126" spans="2:2">
       <c r="B126" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1" t="s">
-        <v>127</v>
-      </c>
+    <row r="127" spans="2:2">
       <c r="B127" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1" t="s">
-        <v>128</v>
-      </c>
+    <row r="128" spans="2:2">
       <c r="B128" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1" t="s">
-        <v>129</v>
-      </c>
+    <row r="129" spans="2:2">
       <c r="B129" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1" t="s">
-        <v>130</v>
-      </c>
+    <row r="130" spans="2:2">
       <c r="B130" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="1" t="s">
-        <v>131</v>
-      </c>
+    <row r="131" spans="2:2">
       <c r="B131" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1" t="s">
-        <v>132</v>
-      </c>
+    <row r="132" spans="2:2">
       <c r="B132" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1" t="s">
-        <v>133</v>
-      </c>
+    <row r="133" spans="2:2">
       <c r="B133" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1" t="s">
-        <v>134</v>
-      </c>
+    <row r="134" spans="2:2">
       <c r="B134" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="1" t="s">
-        <v>135</v>
-      </c>
+    <row r="135" spans="2:2">
       <c r="B135" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="1" t="s">
-        <v>136</v>
-      </c>
+    <row r="136" spans="2:2">
       <c r="B136" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="1" t="s">
-        <v>137</v>
-      </c>
+    <row r="137" spans="2:2">
       <c r="B137" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="1" t="s">
-        <v>138</v>
-      </c>
+    <row r="138" spans="2:2">
       <c r="B138" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1" t="s">
-        <v>139</v>
-      </c>
+    <row r="139" spans="2:2">
       <c r="B139" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1" t="s">
-        <v>140</v>
-      </c>
+    <row r="140" spans="2:2">
       <c r="B140" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1" t="s">
-        <v>141</v>
-      </c>
+    <row r="141" spans="2:2">
       <c r="B141" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1" t="s">
-        <v>142</v>
-      </c>
+    <row r="142" spans="2:2">
       <c r="B142" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1" t="s">
-        <v>143</v>
-      </c>
+    <row r="143" spans="2:2">
       <c r="B143" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
-        <v>144</v>
-      </c>
+    <row r="144" spans="2:2">
       <c r="B144" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1" t="s">
-        <v>145</v>
-      </c>
+    <row r="145" spans="2:2">
       <c r="B145" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1" t="s">
-        <v>146</v>
-      </c>
+    <row r="146" spans="2:2">
       <c r="B146" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1" t="s">
-        <v>147</v>
-      </c>
+    <row r="147" spans="2:2">
       <c r="B147" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1" t="s">
-        <v>148</v>
-      </c>
+    <row r="148" spans="2:2">
       <c r="B148" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1" t="s">
-        <v>149</v>
-      </c>
+    <row r="149" spans="2:2">
       <c r="B149" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1" t="s">
-        <v>150</v>
-      </c>
+    <row r="150" spans="2:2">
       <c r="B150" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1" t="s">
-        <v>151</v>
-      </c>
+    <row r="151" spans="2:2">
       <c r="B151" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
-        <v>152</v>
-      </c>
+    <row r="152" spans="2:2">
       <c r="B152" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1" t="s">
-        <v>153</v>
-      </c>
+    <row r="153" spans="2:2">
       <c r="B153" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1" t="s">
-        <v>154</v>
-      </c>
+    <row r="154" spans="2:2">
       <c r="B154" s="1" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://www.roughguides.com/country/abu-dhabi/"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://www.roughguides.com/country/afghanistan/"/>
-    <hyperlink ref="A4" r:id="rId3" display="http://www.roughguides.com/destinations/europe/albania"/>
-    <hyperlink ref="A5" r:id="rId4" display="http://www.roughguides.com/country/andorra-europe/"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://www.roughguides.com/destinations/south-america/argentina"/>
-    <hyperlink ref="A7" r:id="rId6" display="http://www.roughguides.com/country/armenia/"/>
-    <hyperlink ref="A8" r:id="rId7" display="http://www.roughguides.com/destinations/australasia/australia"/>
-    <hyperlink ref="A9" r:id="rId8" display="http://www.roughguides.com/destinations/europe/austria"/>
-    <hyperlink ref="A10" r:id="rId9" display="http://www.roughguides.com/country/bahamas/"/>
-    <hyperlink ref="A11" r:id="rId10" display="http://www.roughguides.com/country/bangladesh/"/>
-    <hyperlink ref="A12" r:id="rId11" display="http://www.roughguides.com/country/barbados/"/>
-    <hyperlink ref="A13" r:id="rId12" display="http://www.roughguides.com/country/belarus/"/>
-    <hyperlink ref="A14" r:id="rId13" display="http://www.roughguides.com/destinations/europe/belgium"/>
-    <hyperlink ref="A15" r:id="rId14" display="http://www.roughguides.com/destinations/central-america-the-caribbean/belize"/>
-    <hyperlink ref="A16" r:id="rId15" display="http://www.roughguides.com/country/benin/"/>
-    <hyperlink ref="A17" r:id="rId16" display="http://www.roughguides.com/country/bermuda/"/>
-    <hyperlink ref="A18" r:id="rId17" display="http://www.roughguides.com/country/bhutan/"/>
-    <hyperlink ref="A19" r:id="rId18" display="http://www.roughguides.com/destinations/south-america/bolivia"/>
-    <hyperlink ref="A20" r:id="rId19" display="http://www.roughguides.com/destinations/europe/bosnia-herzegovina"/>
-    <hyperlink ref="A21" r:id="rId20" display="http://www.roughguides.com/country/botswana/"/>
-    <hyperlink ref="A22" r:id="rId21" display="http://www.roughguides.com/destinations/south-america/brazil"/>
-    <hyperlink ref="A23" r:id="rId22" display="http://www.roughguides.com/country/brunei/"/>
-    <hyperlink ref="A24" r:id="rId23" display="http://www.roughguides.com/destinations/europe/bulgaria"/>
-    <hyperlink ref="A25" r:id="rId24" display="http://www.roughguides.com/destinations/asia/cambodia"/>
-    <hyperlink ref="A26" r:id="rId25" display="http://www.roughguides.com/destinations/north-america/canada"/>
-    <hyperlink ref="A27" r:id="rId26" display="http://www.roughguides.com/destinations/south-america/chile"/>
-    <hyperlink ref="A28" r:id="rId27" display="http://www.roughguides.com/destinations/asia/china"/>
-    <hyperlink ref="A29" r:id="rId28" display="http://www.roughguides.com/destinations/south-america/colombia"/>
-    <hyperlink ref="A30" r:id="rId29" display="http://www.roughguides.com/destinations/central-america-the-caribbean/costa-rica"/>
-    <hyperlink ref="A31" r:id="rId30" display="http://www.roughguides.com/destinations/europe/croatia"/>
-    <hyperlink ref="A32" r:id="rId31" display="http://www.roughguides.com/destinations/central-america-the-caribbean/cuba"/>
-    <hyperlink ref="A33" r:id="rId32" display="http://www.roughguides.com/destinations/europe/cyprus"/>
-    <hyperlink ref="A34" r:id="rId33" display="http://www.roughguides.com/destinations/europe/czech-republic"/>
-    <hyperlink ref="A35" r:id="rId34" display="http://www.roughguides.com/destinations/europe/denmark"/>
-    <hyperlink ref="A36" r:id="rId35" display="http://www.roughguides.com/destinations/middle-east/dubai"/>
-    <hyperlink ref="A37" r:id="rId36" display="http://www.roughguides.com/destinations/south-america/ecuador"/>
-    <hyperlink ref="A38" r:id="rId37" display="http://www.roughguides.com/destinations/africa/egypt"/>
-    <hyperlink ref="A39" r:id="rId38" display="http://www.roughguides.com/country/el-salvador/"/>
-    <hyperlink ref="A40" r:id="rId39" display="http://www.roughguides.com/destinations/europe/england"/>
-    <hyperlink ref="A41" r:id="rId40" display="http://www.roughguides.com/destinations/europe/estonia"/>
-    <hyperlink ref="A42" r:id="rId41" display="http://www.roughguides.com/destinations/africa/ethiopia"/>
-    <hyperlink ref="A43" r:id="rId42" display="http://www.roughguides.com/destinations/australasia/fiji"/>
-    <hyperlink ref="A44" r:id="rId43" display="http://www.roughguides.com/destinations/europe/finland"/>
-    <hyperlink ref="A45" r:id="rId44" display="http://www.roughguides.com/destinations/europe/france"/>
-    <hyperlink ref="A46" r:id="rId45" display="http://www.roughguides.com/country/gabon/"/>
-    <hyperlink ref="A47" r:id="rId46" display="http://www.roughguides.com/country/gambia/"/>
-    <hyperlink ref="A48" r:id="rId47" display="http://www.roughguides.com/country/georgia/"/>
-    <hyperlink ref="A49" r:id="rId48" display="http://www.roughguides.com/destinations/europe/germany"/>
-    <hyperlink ref="A50" r:id="rId49" display="http://www.roughguides.com/country/ghana/"/>
-    <hyperlink ref="A51" r:id="rId50" display="http://www.roughguides.com/destinations/europe/greece"/>
-    <hyperlink ref="A52" r:id="rId51" display="http://www.roughguides.com/country/greenland/"/>
-    <hyperlink ref="A53" r:id="rId52" display="http://www.roughguides.com/country/grenada/"/>
-    <hyperlink ref="A54" r:id="rId53" display="http://www.roughguides.com/destinations/central-america-the-caribbean/guatemala"/>
-    <hyperlink ref="A55" r:id="rId54" display="http://www.roughguides.com/country/guinea/"/>
-    <hyperlink ref="A56" r:id="rId55" display="http://www.roughguides.com/country/guyana/"/>
-    <hyperlink ref="A57" r:id="rId56" display="http://www.roughguides.com/destinations/central-america-the-caribbean/honduras"/>
-    <hyperlink ref="A58" r:id="rId57" display="http://www.roughguides.com/destinations/europe/hungary"/>
-    <hyperlink ref="A59" r:id="rId58" display="http://www.roughguides.com/destinations/europe/iceland"/>
-    <hyperlink ref="A60" r:id="rId59" display="http://www.roughguides.com/destinations/asia/india"/>
-    <hyperlink ref="A61" r:id="rId60" display="http://www.roughguides.com/destinations/asia/indonesia"/>
-    <hyperlink ref="A62" r:id="rId61" display="http://www.roughguides.com/country/iran/"/>
-    <hyperlink ref="A63" r:id="rId62" display="http://www.roughguides.com/destinations/europe/ireland"/>
-    <hyperlink ref="A64" r:id="rId63" display="http://www.roughguides.com/country/israel/"/>
-    <hyperlink ref="A65" r:id="rId64" display="http://www.roughguides.com/destinations/europe/italy"/>
-    <hyperlink ref="A66" r:id="rId65" display="http://www.roughguides.com/destinations/central-america-the-caribbean/jamaica"/>
-    <hyperlink ref="A67" r:id="rId66" display="http://www.roughguides.com/destinations/asia/japan"/>
-    <hyperlink ref="A68" r:id="rId67" display="http://www.roughguides.com/destinations/middle-east/jordan"/>
-    <hyperlink ref="A69" r:id="rId68" display="http://www.roughguides.com/country/kazakhstan/"/>
-    <hyperlink ref="A70" r:id="rId69" display="http://www.roughguides.com/destinations/africa/kenya"/>
-    <hyperlink ref="A71" r:id="rId70" display="http://www.roughguides.com/country/kosovo/"/>
-    <hyperlink ref="A72" r:id="rId71" display="http://www.roughguides.com/country/kuwait/"/>
-    <hyperlink ref="A73" r:id="rId72" display="http://www.roughguides.com/destinations/asia/laos"/>
-    <hyperlink ref="A74" r:id="rId73" display="http://www.roughguides.com/destinations/europe/latvia"/>
-    <hyperlink ref="A75" r:id="rId74" display="http://www.roughguides.com/country/lebanon/"/>
-    <hyperlink ref="A76" r:id="rId75" display="http://www.roughguides.com/country/lesotho/"/>
-    <hyperlink ref="A77" r:id="rId76" display="http://www.roughguides.com/country/libya/"/>
-    <hyperlink ref="A78" r:id="rId77" display="http://www.roughguides.com/destinations/europe/lithuania"/>
-    <hyperlink ref="A79" r:id="rId78" display="http://www.roughguides.com/country/luxembourg/"/>
-    <hyperlink ref="A80" r:id="rId79" display="http://www.roughguides.com/destinations/africa/madagascar"/>
-    <hyperlink ref="A81" r:id="rId80" display="http://www.roughguides.com/country/malawi/"/>
-    <hyperlink ref="A82" r:id="rId81" display="http://www.roughguides.com/destinations/asia/malaysia"/>
-    <hyperlink ref="A83" r:id="rId82" display="http://www.roughguides.com/country/maldives/"/>
-    <hyperlink ref="A84" r:id="rId83" display="http://www.roughguides.com/country/mali/"/>
-    <hyperlink ref="A85" r:id="rId84" display="http://www.roughguides.com/country/malta/"/>
-    <hyperlink ref="A86" r:id="rId85" display="http://www.roughguides.com/destinations/africa/mauritius"/>
-    <hyperlink ref="A87" r:id="rId86" display="http://www.roughguides.com/destinations/north-america/mexico"/>
-    <hyperlink ref="A88" r:id="rId87" display="http://www.roughguides.com/country/monaco-europe/"/>
-    <hyperlink ref="A89" r:id="rId88" display="http://www.roughguides.com/country/mongolia/"/>
-    <hyperlink ref="A90" r:id="rId89" display="http://www.roughguides.com/destinations/europe/montenegro"/>
-    <hyperlink ref="A91" r:id="rId90" display="http://www.roughguides.com/destinations/africa/morocco"/>
-    <hyperlink ref="A92" r:id="rId91" display="http://www.roughguides.com/country/mozambique/"/>
-    <hyperlink ref="A93" r:id="rId92" display="http://www.roughguides.com/destinations/asia/myanmar-burma"/>
-    <hyperlink ref="A94" r:id="rId93" display="http://www.roughguides.com/destinations/africa/namibia"/>
-    <hyperlink ref="A95" r:id="rId94" display="http://www.roughguides.com/destinations/asia/nepal"/>
-    <hyperlink ref="A96" r:id="rId95" display="http://www.roughguides.com/destinations/europe/netherlands"/>
-    <hyperlink ref="A97" r:id="rId96" display="http://www.roughguides.com/destinations/australasia/new-zealand"/>
-    <hyperlink ref="A98" r:id="rId97" display="http://www.roughguides.com/destinations/central-america-the-caribbean/nicaragua"/>
-    <hyperlink ref="A99" r:id="rId98" display="http://www.roughguides.com/destinations/north-america/nicaragua-north-america"/>
-    <hyperlink ref="A100" r:id="rId99" display="http://www.roughguides.com/country/niger/"/>
-    <hyperlink ref="A101" r:id="rId100" display="http://www.roughguides.com/country/nigeria/"/>
-    <hyperlink ref="A102" r:id="rId101" display="http://www.roughguides.com/destinations/europe/norway"/>
-    <hyperlink ref="A103" r:id="rId102" display="http://www.roughguides.com/destinations/middle-east/oman"/>
-    <hyperlink ref="A104" r:id="rId103" display="http://www.roughguides.com/country/pakistan/"/>
-    <hyperlink ref="A105" r:id="rId104" display="http://www.roughguides.com/destinations/central-america-the-caribbean/panama"/>
-    <hyperlink ref="A106" r:id="rId105" display="http://www.roughguides.com/country/papua-new-guinea/"/>
-    <hyperlink ref="A107" r:id="rId106" display="http://www.roughguides.com/country/paraguay/"/>
-    <hyperlink ref="A108" r:id="rId107" display="http://www.roughguides.com/destinations/south-america/peru"/>
-    <hyperlink ref="A109" r:id="rId108" display="http://www.roughguides.com/destinations/asia/philippines"/>
-    <hyperlink ref="A110" r:id="rId109" display="http://www.roughguides.com/destinations/europe/poland"/>
-    <hyperlink ref="A111" r:id="rId110" display="http://www.roughguides.com/destinations/europe/portugal"/>
-    <hyperlink ref="A112" r:id="rId111" display="http://www.roughguides.com/destinations/central-america-the-caribbean/puerto-rico"/>
-    <hyperlink ref="A113" r:id="rId112" display="http://www.roughguides.com/country/qatar/"/>
-    <hyperlink ref="A114" r:id="rId113" display="http://www.roughguides.com/destinations/europe/romania"/>
-    <hyperlink ref="A115" r:id="rId114" display="http://www.roughguides.com/destinations/europe/russia"/>
-    <hyperlink ref="A116" r:id="rId115" display="http://www.roughguides.com/country/rwanda/"/>
-    <hyperlink ref="A117" r:id="rId116" display="http://www.roughguides.com/country/samoa/"/>
-    <hyperlink ref="A118" r:id="rId117" display="http://www.roughguides.com/country/saudi-arabia/"/>
-    <hyperlink ref="A119" r:id="rId118" display="http://www.roughguides.com/destinations/europe/scotland"/>
-    <hyperlink ref="A120" r:id="rId119" display="http://www.roughguides.com/country/senegal/"/>
-    <hyperlink ref="A121" r:id="rId120" display="http://www.roughguides.com/destinations/europe/serbia"/>
-    <hyperlink ref="A122" r:id="rId121" display="http://www.roughguides.com/country/seychelles/"/>
-    <hyperlink ref="A123" r:id="rId122" display="http://www.roughguides.com/destinations/asia/singapore"/>
-    <hyperlink ref="A124" r:id="rId123" display="http://www.roughguides.com/destinations/europe/slovakia"/>
-    <hyperlink ref="A125" r:id="rId124" display="http://www.roughguides.com/destinations/europe/slovenia"/>
-    <hyperlink ref="A126" r:id="rId125" display="http://www.roughguides.com/destinations/africa/south-africa"/>
-    <hyperlink ref="A127" r:id="rId126" display="http://www.roughguides.com/destinations/asia/south-korea"/>
-    <hyperlink ref="A128" r:id="rId127" display="http://www.roughguides.com/destinations/europe/spain"/>
-    <hyperlink ref="A129" r:id="rId128" display="http://www.roughguides.com/destinations/asia/sri-lanka"/>
-    <hyperlink ref="A130" r:id="rId129" display="http://www.roughguides.com/country/sudan/"/>
-    <hyperlink ref="A131" r:id="rId130" display="http://www.roughguides.com/country/swaziland/"/>
-    <hyperlink ref="A132" r:id="rId131" display="http://www.roughguides.com/destinations/europe/sweden"/>
-    <hyperlink ref="A133" r:id="rId132" display="http://www.roughguides.com/destinations/europe/switzerland"/>
-    <hyperlink ref="A134" r:id="rId133" display="http://www.roughguides.com/country/syria/"/>
-    <hyperlink ref="A135" r:id="rId134" display="http://www.roughguides.com/destinations/asia/taiwan"/>
-    <hyperlink ref="A136" r:id="rId135" display="http://www.roughguides.com/country/tanzania-zanzibar/"/>
-    <hyperlink ref="A137" r:id="rId136" display="http://www.roughguides.com/destinations/asia/thailand"/>
-    <hyperlink ref="A138" r:id="rId137" display="http://www.roughguides.com/destinations/central-america-the-caribbean/trinidad-tobago"/>
-    <hyperlink ref="A139" r:id="rId138" display="http://www.roughguides.com/country/tunisia/"/>
-    <hyperlink ref="A140" r:id="rId139" display="http://www.roughguides.com/destinations/europe/turkey"/>
-    <hyperlink ref="A141" r:id="rId140" display="http://www.roughguides.com/country/turkmenistan/"/>
-    <hyperlink ref="A142" r:id="rId141" display="http://www.roughguides.com/country/tuvalu/"/>
-    <hyperlink ref="A143" r:id="rId142" display="http://www.roughguides.com/country/uganda/"/>
-    <hyperlink ref="A144" r:id="rId143" display="http://www.roughguides.com/country/ukraine/"/>
-    <hyperlink ref="A145" r:id="rId144" display="http://www.roughguides.com/country/united-arab-emirates/"/>
-    <hyperlink ref="A146" r:id="rId145" display="http://www.roughguides.com/country/gb/"/>
-    <hyperlink ref="A147" r:id="rId146" display="http://www.roughguides.com/country/uruguay/"/>
-    <hyperlink ref="A148" r:id="rId147" display="http://www.roughguides.com/destinations/north-america/usa"/>
-    <hyperlink ref="A149" r:id="rId148" display="http://www.roughguides.com/country/uzbekistan/"/>
-    <hyperlink ref="A150" r:id="rId149" display="http://www.roughguides.com/country/vanuatu/"/>
-    <hyperlink ref="A151" r:id="rId150" display="http://www.roughguides.com/country/venezuela/"/>
-    <hyperlink ref="A152" r:id="rId151" display="http://www.roughguides.com/destinations/asia/vietnam"/>
-    <hyperlink ref="A153" r:id="rId152" display="http://www.roughguides.com/destinations/europe/wales"/>
-    <hyperlink ref="A154" r:id="rId153" display="http://www.roughguides.com/country/yemen/"/>
-    <hyperlink ref="B2" r:id="rId154" display="http://www.roughguides.com/country/abu-dhabi/"/>
-    <hyperlink ref="B3" r:id="rId155" display="http://www.roughguides.com/country/afghanistan/"/>
-    <hyperlink ref="B4" r:id="rId156" display="http://www.roughguides.com/destinations/europe/albania"/>
-    <hyperlink ref="B5" r:id="rId157" display="http://www.roughguides.com/country/andorra-europe/"/>
-    <hyperlink ref="B6" r:id="rId158" display="http://www.roughguides.com/destinations/south-america/argentina"/>
-    <hyperlink ref="B7" r:id="rId159" display="http://www.roughguides.com/country/armenia/"/>
-    <hyperlink ref="B8" r:id="rId160" display="http://www.roughguides.com/destinations/australasia/australia"/>
-    <hyperlink ref="B9" r:id="rId161" display="http://www.roughguides.com/destinations/europe/austria"/>
-    <hyperlink ref="B10" r:id="rId162" display="http://www.roughguides.com/country/bahamas/"/>
-    <hyperlink ref="B11" r:id="rId163" display="http://www.roughguides.com/country/bangladesh/"/>
-    <hyperlink ref="B12" r:id="rId164" display="http://www.roughguides.com/country/barbados/"/>
-    <hyperlink ref="B13" r:id="rId165" display="http://www.roughguides.com/country/belarus/"/>
-    <hyperlink ref="B14" r:id="rId166" display="http://www.roughguides.com/destinations/europe/belgium"/>
-    <hyperlink ref="B15" r:id="rId167" display="http://www.roughguides.com/destinations/central-america-the-caribbean/belize"/>
-    <hyperlink ref="B16" r:id="rId168" display="http://www.roughguides.com/country/benin/"/>
-    <hyperlink ref="B17" r:id="rId169" display="http://www.roughguides.com/country/bermuda/"/>
-    <hyperlink ref="B18" r:id="rId170" display="http://www.roughguides.com/country/bhutan/"/>
-    <hyperlink ref="B19" r:id="rId171" display="http://www.roughguides.com/destinations/south-america/bolivia"/>
-    <hyperlink ref="B20" r:id="rId172" display="http://www.roughguides.com/destinations/europe/bosnia-herzegovina"/>
-    <hyperlink ref="B21" r:id="rId173" display="http://www.roughguides.com/country/botswana/"/>
-    <hyperlink ref="B22" r:id="rId174" display="http://www.roughguides.com/destinations/south-america/brazil"/>
-    <hyperlink ref="B23" r:id="rId175" display="http://www.roughguides.com/country/brunei/"/>
-    <hyperlink ref="B24" r:id="rId176" display="http://www.roughguides.com/destinations/europe/bulgaria"/>
-    <hyperlink ref="B25" r:id="rId177" display="http://www.roughguides.com/destinations/asia/cambodia"/>
-    <hyperlink ref="B26" r:id="rId178" display="http://www.roughguides.com/destinations/north-america/canada"/>
-    <hyperlink ref="B27" r:id="rId179" display="http://www.roughguides.com/destinations/south-america/chile"/>
-    <hyperlink ref="B28" r:id="rId180" display="http://www.roughguides.com/destinations/asia/china"/>
-    <hyperlink ref="B29" r:id="rId181" display="http://www.roughguides.com/destinations/south-america/colombia"/>
-    <hyperlink ref="B30" r:id="rId182" display="http://www.roughguides.com/destinations/central-america-the-caribbean/costa-rica"/>
-    <hyperlink ref="B31" r:id="rId183" display="http://www.roughguides.com/destinations/europe/croatia"/>
-    <hyperlink ref="B32" r:id="rId184" display="http://www.roughguides.com/destinations/central-america-the-caribbean/cuba"/>
-    <hyperlink ref="B33" r:id="rId185" display="http://www.roughguides.com/destinations/europe/cyprus"/>
-    <hyperlink ref="B34" r:id="rId186" display="http://www.roughguides.com/destinations/europe/czech-republic"/>
-    <hyperlink ref="B35" r:id="rId187" display="http://www.roughguides.com/destinations/europe/denmark"/>
-    <hyperlink ref="B36" r:id="rId188" display="http://www.roughguides.com/destinations/middle-east/dubai"/>
-    <hyperlink ref="B37" r:id="rId189" display="http://www.roughguides.com/destinations/south-america/ecuador"/>
-    <hyperlink ref="B38" r:id="rId190" display="http://www.roughguides.com/destinations/africa/egypt"/>
-    <hyperlink ref="B39" r:id="rId191" display="http://www.roughguides.com/country/el-salvador/"/>
-    <hyperlink ref="B40" r:id="rId192" display="http://www.roughguides.com/destinations/europe/england"/>
-    <hyperlink ref="B41" r:id="rId193" display="http://www.roughguides.com/destinations/europe/estonia"/>
-    <hyperlink ref="B42" r:id="rId194" display="http://www.roughguides.com/destinations/africa/ethiopia"/>
-    <hyperlink ref="B43" r:id="rId195" display="http://www.roughguides.com/destinations/australasia/fiji"/>
-    <hyperlink ref="B44" r:id="rId196" display="http://www.roughguides.com/destinations/europe/finland"/>
-    <hyperlink ref="B45" r:id="rId197" display="http://www.roughguides.com/destinations/europe/france"/>
-    <hyperlink ref="B46" r:id="rId198" display="http://www.roughguides.com/country/gabon/"/>
-    <hyperlink ref="B47" r:id="rId199" display="http://www.roughguides.com/country/gambia/"/>
-    <hyperlink ref="B48" r:id="rId200" display="http://www.roughguides.com/country/georgia/"/>
-    <hyperlink ref="B49" r:id="rId201" display="http://www.roughguides.com/destinations/europe/germany"/>
-    <hyperlink ref="B50" r:id="rId202" display="http://www.roughguides.com/country/ghana/"/>
-    <hyperlink ref="B51" r:id="rId203" display="http://www.roughguides.com/destinations/europe/greece"/>
-    <hyperlink ref="B52" r:id="rId204" display="http://www.roughguides.com/country/greenland/"/>
-    <hyperlink ref="B53" r:id="rId205" display="http://www.roughguides.com/country/grenada/"/>
-    <hyperlink ref="B54" r:id="rId206" display="http://www.roughguides.com/destinations/central-america-the-caribbean/guatemala"/>
-    <hyperlink ref="B55" r:id="rId207" display="http://www.roughguides.com/country/guinea/"/>
-    <hyperlink ref="B56" r:id="rId208" display="http://www.roughguides.com/country/guyana/"/>
-    <hyperlink ref="B57" r:id="rId209" display="http://www.roughguides.com/destinations/central-america-the-caribbean/honduras"/>
-    <hyperlink ref="B58" r:id="rId210" display="http://www.roughguides.com/destinations/europe/hungary"/>
-    <hyperlink ref="B59" r:id="rId211" display="http://www.roughguides.com/destinations/europe/iceland"/>
-    <hyperlink ref="B60" r:id="rId212" display="http://www.roughguides.com/destinations/asia/india"/>
-    <hyperlink ref="B61" r:id="rId213" display="http://www.roughguides.com/destinations/asia/indonesia"/>
-    <hyperlink ref="B62" r:id="rId214" display="http://www.roughguides.com/country/iran/"/>
-    <hyperlink ref="B63" r:id="rId215" display="http://www.roughguides.com/destinations/europe/ireland"/>
-    <hyperlink ref="B64" r:id="rId216" display="http://www.roughguides.com/country/israel/"/>
-    <hyperlink ref="B65" r:id="rId217" display="http://www.roughguides.com/destinations/europe/italy"/>
-    <hyperlink ref="B66" r:id="rId218" display="http://www.roughguides.com/destinations/central-america-the-caribbean/jamaica"/>
-    <hyperlink ref="B67" r:id="rId219" display="http://www.roughguides.com/destinations/asia/japan"/>
-    <hyperlink ref="B68" r:id="rId220" display="http://www.roughguides.com/destinations/middle-east/jordan"/>
-    <hyperlink ref="B69" r:id="rId221" display="http://www.roughguides.com/country/kazakhstan/"/>
-    <hyperlink ref="B70" r:id="rId222" display="http://www.roughguides.com/destinations/africa/kenya"/>
-    <hyperlink ref="B71" r:id="rId223" display="http://www.roughguides.com/country/kosovo/"/>
-    <hyperlink ref="B72" r:id="rId224" display="http://www.roughguides.com/country/kuwait/"/>
-    <hyperlink ref="B73" r:id="rId225" display="http://www.roughguides.com/destinations/asia/laos"/>
-    <hyperlink ref="B74" r:id="rId226" display="http://www.roughguides.com/destinations/europe/latvia"/>
-    <hyperlink ref="B75" r:id="rId227" display="http://www.roughguides.com/country/lebanon/"/>
-    <hyperlink ref="B76" r:id="rId228" display="http://www.roughguides.com/country/lesotho/"/>
-    <hyperlink ref="B77" r:id="rId229" display="http://www.roughguides.com/country/libya/"/>
-    <hyperlink ref="B78" r:id="rId230" display="http://www.roughguides.com/destinations/europe/lithuania"/>
-    <hyperlink ref="B79" r:id="rId231" display="http://www.roughguides.com/country/luxembourg/"/>
-    <hyperlink ref="B80" r:id="rId232" display="http://www.roughguides.com/destinations/africa/madagascar"/>
-    <hyperlink ref="B81" r:id="rId233" display="http://www.roughguides.com/country/malawi/"/>
-    <hyperlink ref="B82" r:id="rId234" display="http://www.roughguides.com/destinations/asia/malaysia"/>
-    <hyperlink ref="B83" r:id="rId235" display="http://www.roughguides.com/country/maldives/"/>
-    <hyperlink ref="B84" r:id="rId236" display="http://www.roughguides.com/country/mali/"/>
-    <hyperlink ref="B85" r:id="rId237" display="http://www.roughguides.com/country/malta/"/>
-    <hyperlink ref="B86" r:id="rId238" display="http://www.roughguides.com/destinations/africa/mauritius"/>
-    <hyperlink ref="B87" r:id="rId239" display="http://www.roughguides.com/destinations/north-america/mexico"/>
-    <hyperlink ref="B88" r:id="rId240" display="http://www.roughguides.com/country/monaco-europe/"/>
-    <hyperlink ref="B89" r:id="rId241" display="http://www.roughguides.com/country/mongolia/"/>
-    <hyperlink ref="B90" r:id="rId242" display="http://www.roughguides.com/destinations/europe/montenegro"/>
-    <hyperlink ref="B91" r:id="rId243" display="http://www.roughguides.com/destinations/africa/morocco"/>
-    <hyperlink ref="B92" r:id="rId244" display="http://www.roughguides.com/country/mozambique/"/>
-    <hyperlink ref="B93" r:id="rId245" display="http://www.roughguides.com/destinations/asia/myanmar-burma"/>
-    <hyperlink ref="B94" r:id="rId246" display="http://www.roughguides.com/destinations/africa/namibia"/>
-    <hyperlink ref="B95" r:id="rId247" display="http://www.roughguides.com/destinations/asia/nepal"/>
-    <hyperlink ref="B96" r:id="rId248" display="http://www.roughguides.com/destinations/europe/netherlands"/>
-    <hyperlink ref="B97" r:id="rId249" display="http://www.roughguides.com/destinations/australasia/new-zealand"/>
-    <hyperlink ref="B98" r:id="rId250" display="http://www.roughguides.com/destinations/central-america-the-caribbean/nicaragua"/>
-    <hyperlink ref="B99" r:id="rId251" display="http://www.roughguides.com/destinations/north-america/nicaragua-north-america"/>
-    <hyperlink ref="B100" r:id="rId252" display="http://www.roughguides.com/country/niger/"/>
-    <hyperlink ref="B101" r:id="rId253" display="http://www.roughguides.com/country/nigeria/"/>
-    <hyperlink ref="B102" r:id="rId254" display="http://www.roughguides.com/destinations/europe/norway"/>
-    <hyperlink ref="B103" r:id="rId255" display="http://www.roughguides.com/destinations/middle-east/oman"/>
-    <hyperlink ref="B104" r:id="rId256" display="http://www.roughguides.com/country/pakistan/"/>
-    <hyperlink ref="B105" r:id="rId257" display="http://www.roughguides.com/destinations/central-america-the-caribbean/panama"/>
-    <hyperlink ref="B106" r:id="rId258" display="http://www.roughguides.com/country/papua-new-guinea/"/>
-    <hyperlink ref="B107" r:id="rId259" display="http://www.roughguides.com/country/paraguay/"/>
-    <hyperlink ref="B108" r:id="rId260" display="http://www.roughguides.com/destinations/south-america/peru"/>
-    <hyperlink ref="B109" r:id="rId261" display="http://www.roughguides.com/destinations/asia/philippines"/>
-    <hyperlink ref="B110" r:id="rId262" display="http://www.roughguides.com/destinations/europe/poland"/>
-    <hyperlink ref="B111" r:id="rId263" display="http://www.roughguides.com/destinations/europe/portugal"/>
-    <hyperlink ref="B112" r:id="rId264" display="http://www.roughguides.com/destinations/central-america-the-caribbean/puerto-rico"/>
-    <hyperlink ref="B113" r:id="rId265" display="http://www.roughguides.com/country/qatar/"/>
-    <hyperlink ref="B114" r:id="rId266" display="http://www.roughguides.com/destinations/europe/romania"/>
-    <hyperlink ref="B115" r:id="rId267" display="http://www.roughguides.com/destinations/europe/russia"/>
-    <hyperlink ref="B116" r:id="rId268" display="http://www.roughguides.com/country/rwanda/"/>
-    <hyperlink ref="B117" r:id="rId269" display="http://www.roughguides.com/country/samoa/"/>
-    <hyperlink ref="B118" r:id="rId270" display="http://www.roughguides.com/country/saudi-arabia/"/>
-    <hyperlink ref="B119" r:id="rId271" display="http://www.roughguides.com/destinations/europe/scotland"/>
-    <hyperlink ref="B120" r:id="rId272" display="http://www.roughguides.com/country/senegal/"/>
-    <hyperlink ref="B121" r:id="rId273" display="http://www.roughguides.com/destinations/europe/serbia"/>
-    <hyperlink ref="B122" r:id="rId274" display="http://www.roughguides.com/country/seychelles/"/>
-    <hyperlink ref="B123" r:id="rId275" display="http://www.roughguides.com/destinations/asia/singapore"/>
-    <hyperlink ref="B124" r:id="rId276" display="http://www.roughguides.com/destinations/europe/slovakia"/>
-    <hyperlink ref="B125" r:id="rId277" display="http://www.roughguides.com/destinations/europe/slovenia"/>
-    <hyperlink ref="B126" r:id="rId278" display="http://www.roughguides.com/destinations/africa/south-africa"/>
-    <hyperlink ref="B127" r:id="rId279" display="http://www.roughguides.com/destinations/asia/south-korea"/>
-    <hyperlink ref="B128" r:id="rId280" display="http://www.roughguides.com/destinations/europe/spain"/>
-    <hyperlink ref="B129" r:id="rId281" display="http://www.roughguides.com/destinations/asia/sri-lanka"/>
-    <hyperlink ref="B130" r:id="rId282" display="http://www.roughguides.com/country/sudan/"/>
-    <hyperlink ref="B131" r:id="rId283" display="http://www.roughguides.com/country/swaziland/"/>
-    <hyperlink ref="B132" r:id="rId284" display="http://www.roughguides.com/destinations/europe/sweden"/>
-    <hyperlink ref="B133" r:id="rId285" display="http://www.roughguides.com/destinations/europe/switzerland"/>
-    <hyperlink ref="B134" r:id="rId286" display="http://www.roughguides.com/country/syria/"/>
-    <hyperlink ref="B135" r:id="rId287" display="http://www.roughguides.com/destinations/asia/taiwan"/>
-    <hyperlink ref="B136" r:id="rId288" display="http://www.roughguides.com/country/tanzania-zanzibar/"/>
-    <hyperlink ref="B137" r:id="rId289" display="http://www.roughguides.com/destinations/asia/thailand"/>
-    <hyperlink ref="B138" r:id="rId290" display="http://www.roughguides.com/destinations/central-america-the-caribbean/trinidad-tobago"/>
-    <hyperlink ref="B139" r:id="rId291" display="http://www.roughguides.com/country/tunisia/"/>
-    <hyperlink ref="B140" r:id="rId292" display="http://www.roughguides.com/destinations/europe/turkey"/>
-    <hyperlink ref="B141" r:id="rId293" display="http://www.roughguides.com/country/turkmenistan/"/>
-    <hyperlink ref="B142" r:id="rId294" display="http://www.roughguides.com/country/tuvalu/"/>
-    <hyperlink ref="B143" r:id="rId295" display="http://www.roughguides.com/country/uganda/"/>
-    <hyperlink ref="B144" r:id="rId296" display="http://www.roughguides.com/country/ukraine/"/>
-    <hyperlink ref="B145" r:id="rId297" display="http://www.roughguides.com/country/united-arab-emirates/"/>
-    <hyperlink ref="B146" r:id="rId298" display="http://www.roughguides.com/country/gb/"/>
-    <hyperlink ref="B147" r:id="rId299" display="http://www.roughguides.com/country/uruguay/"/>
-    <hyperlink ref="B148" r:id="rId300" display="http://www.roughguides.com/destinations/north-america/usa"/>
-    <hyperlink ref="B149" r:id="rId301" display="http://www.roughguides.com/country/uzbekistan/"/>
-    <hyperlink ref="B150" r:id="rId302" display="http://www.roughguides.com/country/vanuatu/"/>
-    <hyperlink ref="B151" r:id="rId303" display="http://www.roughguides.com/country/venezuela/"/>
-    <hyperlink ref="B152" r:id="rId304" display="http://www.roughguides.com/destinations/asia/vietnam"/>
-    <hyperlink ref="B153" r:id="rId305" display="http://www.roughguides.com/destinations/europe/wales"/>
-    <hyperlink ref="B154" r:id="rId306" display="http://www.roughguides.com/country/yemen/"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.roughguides.com/country/abu-dhabi/"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://www.roughguides.com/country/afghanistan/"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://www.roughguides.com/destinations/europe/albania"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://www.roughguides.com/country/andorra-europe/"/>
+    <hyperlink ref="B6" r:id="rId5" display="http://www.roughguides.com/destinations/south-america/argentina"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://www.roughguides.com/country/armenia/"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://www.roughguides.com/destinations/australasia/australia"/>
+    <hyperlink ref="B9" r:id="rId8" display="http://www.roughguides.com/destinations/europe/austria"/>
+    <hyperlink ref="B10" r:id="rId9" display="http://www.roughguides.com/country/bahamas/"/>
+    <hyperlink ref="B11" r:id="rId10" display="http://www.roughguides.com/country/bangladesh/"/>
+    <hyperlink ref="B12" r:id="rId11" display="http://www.roughguides.com/country/barbados/"/>
+    <hyperlink ref="B13" r:id="rId12" display="http://www.roughguides.com/country/belarus/"/>
+    <hyperlink ref="B14" r:id="rId13" display="http://www.roughguides.com/destinations/europe/belgium"/>
+    <hyperlink ref="B15" r:id="rId14" display="http://www.roughguides.com/destinations/central-america-the-caribbean/belize"/>
+    <hyperlink ref="B16" r:id="rId15" display="http://www.roughguides.com/country/benin/"/>
+    <hyperlink ref="B17" r:id="rId16" display="http://www.roughguides.com/country/bermuda/"/>
+    <hyperlink ref="B18" r:id="rId17" display="http://www.roughguides.com/country/bhutan/"/>
+    <hyperlink ref="B19" r:id="rId18" display="http://www.roughguides.com/destinations/south-america/bolivia"/>
+    <hyperlink ref="B20" r:id="rId19" display="http://www.roughguides.com/destinations/europe/bosnia-herzegovina"/>
+    <hyperlink ref="B21" r:id="rId20" display="http://www.roughguides.com/country/botswana/"/>
+    <hyperlink ref="B22" r:id="rId21" display="http://www.roughguides.com/destinations/south-america/brazil"/>
+    <hyperlink ref="B23" r:id="rId22" display="http://www.roughguides.com/country/brunei/"/>
+    <hyperlink ref="B24" r:id="rId23" display="http://www.roughguides.com/destinations/europe/bulgaria"/>
+    <hyperlink ref="B25" r:id="rId24" display="http://www.roughguides.com/destinations/asia/cambodia"/>
+    <hyperlink ref="B26" r:id="rId25" display="http://www.roughguides.com/destinations/north-america/canada"/>
+    <hyperlink ref="B27" r:id="rId26" display="http://www.roughguides.com/destinations/south-america/chile"/>
+    <hyperlink ref="B28" r:id="rId27" display="http://www.roughguides.com/destinations/asia/china"/>
+    <hyperlink ref="B29" r:id="rId28" display="http://www.roughguides.com/destinations/south-america/colombia"/>
+    <hyperlink ref="B30" r:id="rId29" display="http://www.roughguides.com/destinations/central-america-the-caribbean/costa-rica"/>
+    <hyperlink ref="B31" r:id="rId30" display="http://www.roughguides.com/destinations/europe/croatia"/>
+    <hyperlink ref="B32" r:id="rId31" display="http://www.roughguides.com/destinations/central-america-the-caribbean/cuba"/>
+    <hyperlink ref="B33" r:id="rId32" display="http://www.roughguides.com/destinations/europe/cyprus"/>
+    <hyperlink ref="B34" r:id="rId33" display="http://www.roughguides.com/destinations/europe/czech-republic"/>
+    <hyperlink ref="B35" r:id="rId34" display="http://www.roughguides.com/destinations/europe/denmark"/>
+    <hyperlink ref="B36" r:id="rId35" display="http://www.roughguides.com/destinations/middle-east/dubai"/>
+    <hyperlink ref="B37" r:id="rId36" display="http://www.roughguides.com/destinations/south-america/ecuador"/>
+    <hyperlink ref="B38" r:id="rId37" display="http://www.roughguides.com/destinations/africa/egypt"/>
+    <hyperlink ref="B39" r:id="rId38" display="http://www.roughguides.com/country/el-salvador/"/>
+    <hyperlink ref="B40" r:id="rId39" display="http://www.roughguides.com/destinations/europe/england"/>
+    <hyperlink ref="B41" r:id="rId40" display="http://www.roughguides.com/destinations/europe/estonia"/>
+    <hyperlink ref="B42" r:id="rId41" display="http://www.roughguides.com/destinations/africa/ethiopia"/>
+    <hyperlink ref="B43" r:id="rId42" display="http://www.roughguides.com/destinations/australasia/fiji"/>
+    <hyperlink ref="B44" r:id="rId43" display="http://www.roughguides.com/destinations/europe/finland"/>
+    <hyperlink ref="B45" r:id="rId44" display="http://www.roughguides.com/destinations/europe/france"/>
+    <hyperlink ref="B46" r:id="rId45" display="http://www.roughguides.com/country/gabon/"/>
+    <hyperlink ref="B47" r:id="rId46" display="http://www.roughguides.com/country/gambia/"/>
+    <hyperlink ref="B48" r:id="rId47" display="http://www.roughguides.com/country/georgia/"/>
+    <hyperlink ref="B49" r:id="rId48" display="http://www.roughguides.com/destinations/europe/germany"/>
+    <hyperlink ref="B50" r:id="rId49" display="http://www.roughguides.com/country/ghana/"/>
+    <hyperlink ref="B51" r:id="rId50" display="http://www.roughguides.com/destinations/europe/greece"/>
+    <hyperlink ref="B52" r:id="rId51" display="http://www.roughguides.com/country/greenland/"/>
+    <hyperlink ref="B53" r:id="rId52" display="http://www.roughguides.com/country/grenada/"/>
+    <hyperlink ref="B54" r:id="rId53" display="http://www.roughguides.com/destinations/central-america-the-caribbean/guatemala"/>
+    <hyperlink ref="B55" r:id="rId54" display="http://www.roughguides.com/country/guinea/"/>
+    <hyperlink ref="B56" r:id="rId55" display="http://www.roughguides.com/country/guyana/"/>
+    <hyperlink ref="B57" r:id="rId56" display="http://www.roughguides.com/destinations/central-america-the-caribbean/honduras"/>
+    <hyperlink ref="B58" r:id="rId57" display="http://www.roughguides.com/destinations/europe/hungary"/>
+    <hyperlink ref="B59" r:id="rId58" display="http://www.roughguides.com/destinations/europe/iceland"/>
+    <hyperlink ref="B60" r:id="rId59" display="http://www.roughguides.com/destinations/asia/india"/>
+    <hyperlink ref="B61" r:id="rId60" display="http://www.roughguides.com/destinations/asia/indonesia"/>
+    <hyperlink ref="B62" r:id="rId61" display="http://www.roughguides.com/country/iran/"/>
+    <hyperlink ref="B63" r:id="rId62" display="http://www.roughguides.com/destinations/europe/ireland"/>
+    <hyperlink ref="B64" r:id="rId63" display="http://www.roughguides.com/country/israel/"/>
+    <hyperlink ref="B65" r:id="rId64" display="http://www.roughguides.com/destinations/europe/italy"/>
+    <hyperlink ref="B66" r:id="rId65" display="http://www.roughguides.com/destinations/central-america-the-caribbean/jamaica"/>
+    <hyperlink ref="B67" r:id="rId66" display="http://www.roughguides.com/destinations/asia/japan"/>
+    <hyperlink ref="B68" r:id="rId67" display="http://www.roughguides.com/destinations/middle-east/jordan"/>
+    <hyperlink ref="B69" r:id="rId68" display="http://www.roughguides.com/country/kazakhstan/"/>
+    <hyperlink ref="B70" r:id="rId69" display="http://www.roughguides.com/destinations/africa/kenya"/>
+    <hyperlink ref="B71" r:id="rId70" display="http://www.roughguides.com/country/kosovo/"/>
+    <hyperlink ref="B72" r:id="rId71" display="http://www.roughguides.com/country/kuwait/"/>
+    <hyperlink ref="B73" r:id="rId72" display="http://www.roughguides.com/destinations/asia/laos"/>
+    <hyperlink ref="B74" r:id="rId73" display="http://www.roughguides.com/destinations/europe/latvia"/>
+    <hyperlink ref="B75" r:id="rId74" display="http://www.roughguides.com/country/lebanon/"/>
+    <hyperlink ref="B76" r:id="rId75" display="http://www.roughguides.com/country/lesotho/"/>
+    <hyperlink ref="B77" r:id="rId76" display="http://www.roughguides.com/country/libya/"/>
+    <hyperlink ref="B78" r:id="rId77" display="http://www.roughguides.com/destinations/europe/lithuania"/>
+    <hyperlink ref="B79" r:id="rId78" display="http://www.roughguides.com/country/luxembourg/"/>
+    <hyperlink ref="B80" r:id="rId79" display="http://www.roughguides.com/destinations/africa/madagascar"/>
+    <hyperlink ref="B81" r:id="rId80" display="http://www.roughguides.com/country/malawi/"/>
+    <hyperlink ref="B82" r:id="rId81" display="http://www.roughguides.com/destinations/asia/malaysia"/>
+    <hyperlink ref="B83" r:id="rId82" display="http://www.roughguides.com/country/maldives/"/>
+    <hyperlink ref="B84" r:id="rId83" display="http://www.roughguides.com/country/mali/"/>
+    <hyperlink ref="B85" r:id="rId84" display="http://www.roughguides.com/country/malta/"/>
+    <hyperlink ref="B86" r:id="rId85" display="http://www.roughguides.com/destinations/africa/mauritius"/>
+    <hyperlink ref="B87" r:id="rId86" display="http://www.roughguides.com/destinations/north-america/mexico"/>
+    <hyperlink ref="B88" r:id="rId87" display="http://www.roughguides.com/country/monaco-europe/"/>
+    <hyperlink ref="B89" r:id="rId88" display="http://www.roughguides.com/country/mongolia/"/>
+    <hyperlink ref="B90" r:id="rId89" display="http://www.roughguides.com/destinations/europe/montenegro"/>
+    <hyperlink ref="B91" r:id="rId90" display="http://www.roughguides.com/destinations/africa/morocco"/>
+    <hyperlink ref="B92" r:id="rId91" display="http://www.roughguides.com/country/mozambique/"/>
+    <hyperlink ref="B93" r:id="rId92" display="http://www.roughguides.com/destinations/asia/myanmar-burma"/>
+    <hyperlink ref="B94" r:id="rId93" display="http://www.roughguides.com/destinations/africa/namibia"/>
+    <hyperlink ref="B95" r:id="rId94" display="http://www.roughguides.com/destinations/asia/nepal"/>
+    <hyperlink ref="B96" r:id="rId95" display="http://www.roughguides.com/destinations/europe/netherlands"/>
+    <hyperlink ref="B97" r:id="rId96" display="http://www.roughguides.com/destinations/australasia/new-zealand"/>
+    <hyperlink ref="B98" r:id="rId97" display="http://www.roughguides.com/destinations/central-america-the-caribbean/nicaragua"/>
+    <hyperlink ref="B99" r:id="rId98" display="http://www.roughguides.com/destinations/north-america/nicaragua-north-america"/>
+    <hyperlink ref="B100" r:id="rId99" display="http://www.roughguides.com/country/niger/"/>
+    <hyperlink ref="B101" r:id="rId100" display="http://www.roughguides.com/country/nigeria/"/>
+    <hyperlink ref="B102" r:id="rId101" display="http://www.roughguides.com/destinations/europe/norway"/>
+    <hyperlink ref="B103" r:id="rId102" display="http://www.roughguides.com/destinations/middle-east/oman"/>
+    <hyperlink ref="B104" r:id="rId103" display="http://www.roughguides.com/country/pakistan/"/>
+    <hyperlink ref="B105" r:id="rId104" display="http://www.roughguides.com/destinations/central-america-the-caribbean/panama"/>
+    <hyperlink ref="B106" r:id="rId105" display="http://www.roughguides.com/country/papua-new-guinea/"/>
+    <hyperlink ref="B107" r:id="rId106" display="http://www.roughguides.com/country/paraguay/"/>
+    <hyperlink ref="B108" r:id="rId107" display="http://www.roughguides.com/destinations/south-america/peru"/>
+    <hyperlink ref="B109" r:id="rId108" display="http://www.roughguides.com/destinations/asia/philippines"/>
+    <hyperlink ref="B110" r:id="rId109" display="http://www.roughguides.com/destinations/europe/poland"/>
+    <hyperlink ref="B111" r:id="rId110" display="http://www.roughguides.com/destinations/europe/portugal"/>
+    <hyperlink ref="B112" r:id="rId111" display="http://www.roughguides.com/destinations/central-america-the-caribbean/puerto-rico"/>
+    <hyperlink ref="B113" r:id="rId112" display="http://www.roughguides.com/country/qatar/"/>
+    <hyperlink ref="B114" r:id="rId113" display="http://www.roughguides.com/destinations/europe/romania"/>
+    <hyperlink ref="B115" r:id="rId114" display="http://www.roughguides.com/destinations/europe/russia"/>
+    <hyperlink ref="B116" r:id="rId115" display="http://www.roughguides.com/country/rwanda/"/>
+    <hyperlink ref="B117" r:id="rId116" display="http://www.roughguides.com/country/samoa/"/>
+    <hyperlink ref="B118" r:id="rId117" display="http://www.roughguides.com/country/saudi-arabia/"/>
+    <hyperlink ref="B119" r:id="rId118" display="http://www.roughguides.com/destinations/europe/scotland"/>
+    <hyperlink ref="B120" r:id="rId119" display="http://www.roughguides.com/country/senegal/"/>
+    <hyperlink ref="B121" r:id="rId120" display="http://www.roughguides.com/destinations/europe/serbia"/>
+    <hyperlink ref="B122" r:id="rId121" display="http://www.roughguides.com/country/seychelles/"/>
+    <hyperlink ref="B123" r:id="rId122" display="http://www.roughguides.com/destinations/asia/singapore"/>
+    <hyperlink ref="B124" r:id="rId123" display="http://www.roughguides.com/destinations/europe/slovakia"/>
+    <hyperlink ref="B125" r:id="rId124" display="http://www.roughguides.com/destinations/europe/slovenia"/>
+    <hyperlink ref="B126" r:id="rId125" display="http://www.roughguides.com/destinations/africa/south-africa"/>
+    <hyperlink ref="B127" r:id="rId126" display="http://www.roughguides.com/destinations/asia/south-korea"/>
+    <hyperlink ref="B128" r:id="rId127" display="http://www.roughguides.com/destinations/europe/spain"/>
+    <hyperlink ref="B129" r:id="rId128" display="http://www.roughguides.com/destinations/asia/sri-lanka"/>
+    <hyperlink ref="B130" r:id="rId129" display="http://www.roughguides.com/country/sudan/"/>
+    <hyperlink ref="B131" r:id="rId130" display="http://www.roughguides.com/country/swaziland/"/>
+    <hyperlink ref="B132" r:id="rId131" display="http://www.roughguides.com/destinations/europe/sweden"/>
+    <hyperlink ref="B133" r:id="rId132" display="http://www.roughguides.com/destinations/europe/switzerland"/>
+    <hyperlink ref="B134" r:id="rId133" display="http://www.roughguides.com/country/syria/"/>
+    <hyperlink ref="B135" r:id="rId134" display="http://www.roughguides.com/destinations/asia/taiwan"/>
+    <hyperlink ref="B136" r:id="rId135" display="http://www.roughguides.com/country/tanzania-zanzibar/"/>
+    <hyperlink ref="B137" r:id="rId136" display="http://www.roughguides.com/destinations/asia/thailand"/>
+    <hyperlink ref="B138" r:id="rId137" display="http://www.roughguides.com/destinations/central-america-the-caribbean/trinidad-tobago"/>
+    <hyperlink ref="B139" r:id="rId138" display="http://www.roughguides.com/country/tunisia/"/>
+    <hyperlink ref="B140" r:id="rId139" display="http://www.roughguides.com/destinations/europe/turkey"/>
+    <hyperlink ref="B141" r:id="rId140" display="http://www.roughguides.com/country/turkmenistan/"/>
+    <hyperlink ref="B142" r:id="rId141" display="http://www.roughguides.com/country/tuvalu/"/>
+    <hyperlink ref="B143" r:id="rId142" display="http://www.roughguides.com/country/uganda/"/>
+    <hyperlink ref="B144" r:id="rId143" display="http://www.roughguides.com/country/ukraine/"/>
+    <hyperlink ref="B145" r:id="rId144" display="http://www.roughguides.com/country/united-arab-emirates/"/>
+    <hyperlink ref="B146" r:id="rId145" display="http://www.roughguides.com/country/gb/"/>
+    <hyperlink ref="B147" r:id="rId146" display="http://www.roughguides.com/country/uruguay/"/>
+    <hyperlink ref="B148" r:id="rId147" display="http://www.roughguides.com/destinations/north-america/usa"/>
+    <hyperlink ref="B149" r:id="rId148" display="http://www.roughguides.com/country/uzbekistan/"/>
+    <hyperlink ref="B150" r:id="rId149" display="http://www.roughguides.com/country/vanuatu/"/>
+    <hyperlink ref="B151" r:id="rId150" display="http://www.roughguides.com/country/venezuela/"/>
+    <hyperlink ref="B152" r:id="rId151" display="http://www.roughguides.com/destinations/asia/vietnam"/>
+    <hyperlink ref="B153" r:id="rId152" display="http://www.roughguides.com/destinations/europe/wales"/>
+    <hyperlink ref="B154" r:id="rId153" display="http://www.roughguides.com/country/yemen/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId154"/>
 </worksheet>
 </file>
 
@@ -2594,17 +2134,17 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.75" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.75" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2738,10 +2278,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="38.75" customWidth="1"/>
     <col min="5" max="5" width="66" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2854,17 +2394,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2970,4 +2510,323 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="11.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="16.75" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/goTripcyContent/resources/excel/data.xlsx
+++ b/goTripcyContent/resources/excel/data.xlsx
@@ -770,19 +770,19 @@
     <t>2</t>
   </si>
   <si>
-    <t>standard,deluxe,luxury</t>
-  </si>
-  <si>
-    <t>34999,39999,44999</t>
-  </si>
-  <si>
-    <t>25999,31999,38999</t>
-  </si>
-  <si>
-    <t>31999,38999,42999</t>
-  </si>
-  <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>standard;;;deluxe;;;luxury</t>
+  </si>
+  <si>
+    <t>34999;;;39999;;;44999</t>
+  </si>
+  <si>
+    <t>25999;;;31999;;;38999</t>
+  </si>
+  <si>
+    <t>31999;;;38999;;;42999</t>
   </si>
 </sst>
 </file>
@@ -2516,8 +2516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2605,7 +2605,7 @@
         <v>246</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18.75" customHeight="1">
@@ -2650,13 +2650,13 @@
         <v>226</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>227</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -2730,13 +2730,13 @@
         <v>229</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>227</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -2810,13 +2810,13 @@
         <v>231</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>227</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>

--- a/goTripcyContent/resources/excel/data.xlsx
+++ b/goTripcyContent/resources/excel/data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="409">
   <si>
     <t>Going</t>
   </si>
@@ -704,24 +704,6 @@
     <t>Breakfast</t>
   </si>
   <si>
-    <t>Amazing Thailand</t>
-  </si>
-  <si>
-    <t>Bangkok 2 N, Pattaya 02 N</t>
-  </si>
-  <si>
-    <t>Unlimited Thailand</t>
-  </si>
-  <si>
-    <t>Bangkok 2 N, Pattaya 03 N</t>
-  </si>
-  <si>
-    <t>Dubai;;;UAE</t>
-  </si>
-  <si>
-    <t>Point 1;;;Point 2;;;Point3</t>
-  </si>
-  <si>
     <t>Meals</t>
   </si>
   <si>
@@ -767,9 +749,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -779,10 +758,493 @@
     <t>34999;;;39999;;;44999</t>
   </si>
   <si>
-    <t>25999;;;31999;;;38999</t>
-  </si>
-  <si>
-    <t>31999;;;38999;;;42999</t>
+    <t>Exotic Dubai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half day Dubai city tour;;;Dhow cruise;;;Desert Safari with Dinner </t>
+  </si>
+  <si>
+    <t>Visa;;;GST 4.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAE;;;DUBAI;;;Middle east </t>
+  </si>
+  <si>
+    <t>Dubai 3N</t>
+  </si>
+  <si>
+    <t>32999;;;35999;;;40999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubai Extravagenza </t>
+  </si>
+  <si>
+    <t>Dubai 5N</t>
+  </si>
+  <si>
+    <t>36999;;;41999;;;46999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubai Wonder </t>
+  </si>
+  <si>
+    <t>Dubai 6N</t>
+  </si>
+  <si>
+    <t>37999;;;43999;;;48999</t>
+  </si>
+  <si>
+    <t>14999;;;19999;;;24999</t>
+  </si>
+  <si>
+    <t>12999;;;15999;;;20999</t>
+  </si>
+  <si>
+    <t>16999;;;21999;;;26999</t>
+  </si>
+  <si>
+    <t>17999;;;23999;;;28999</t>
+  </si>
+  <si>
+    <t>Thailand  Delight</t>
+  </si>
+  <si>
+    <t>Bangkok;;;Pattaya</t>
+  </si>
+  <si>
+    <t>Bangkok 1N &amp; Pattaya 2N</t>
+  </si>
+  <si>
+    <t>24999;;;26999;;;28999</t>
+  </si>
+  <si>
+    <t>Bangkok 2N &amp; Pattaya 2N</t>
+  </si>
+  <si>
+    <t>25999;;;27999;;;29999</t>
+  </si>
+  <si>
+    <t>26999;;;28999;;;30999</t>
+  </si>
+  <si>
+    <t>Phuket Delight</t>
+  </si>
+  <si>
+    <t>Phuket  Half day city tour</t>
+  </si>
+  <si>
+    <t>Phuket 3N</t>
+  </si>
+  <si>
+    <t>27999;;;30999;;;35999</t>
+  </si>
+  <si>
+    <t>Phuket Bangkok</t>
+  </si>
+  <si>
+    <t>27999;;;32999;;;37999</t>
+  </si>
+  <si>
+    <t>Phuket Karabi</t>
+  </si>
+  <si>
+    <t>44999;;;48999;;;51999</t>
+  </si>
+  <si>
+    <t>14999;;;17999;;;20999</t>
+  </si>
+  <si>
+    <t>11999;;;15999;;;19999</t>
+  </si>
+  <si>
+    <t>15999;;;20999;;;24999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Singapore </t>
+  </si>
+  <si>
+    <t>Singapore City 3N</t>
+  </si>
+  <si>
+    <t>48999;;;56999;;;60999</t>
+  </si>
+  <si>
+    <t>Singapore City 4N</t>
+  </si>
+  <si>
+    <t>52999;;;58999;;;63999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stunning Singapore </t>
+  </si>
+  <si>
+    <t>Singapore City 5N</t>
+  </si>
+  <si>
+    <t>55999;;;61999;;;67999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genting Highlands, Kuala Lumpur, Singapore </t>
+  </si>
+  <si>
+    <t>52999;;;59999;;;65999</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur &amp; Singapore</t>
+  </si>
+  <si>
+    <t>66999;;;70999;;;74999</t>
+  </si>
+  <si>
+    <t>20999;;;24999;;;28999</t>
+  </si>
+  <si>
+    <t>22999;;;26999;;;30999</t>
+  </si>
+  <si>
+    <t>24999;;;30999;;;36999</t>
+  </si>
+  <si>
+    <t>27999;;;32999;;;39999</t>
+  </si>
+  <si>
+    <t>26999;;;29999;;;35999</t>
+  </si>
+  <si>
+    <t>Malaysia - Truly Asia</t>
+  </si>
+  <si>
+    <t>Half-day city tour in Kuala Lumpur with KL Tower Genting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2N Genting Highland | 2N Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>13999;;;18999;;;24999</t>
+  </si>
+  <si>
+    <t>Best of Singapore &amp; Malaysia</t>
+  </si>
+  <si>
+    <t>64999;;;70999;;;74999</t>
+  </si>
+  <si>
+    <t>30999;;;35999;;;39999</t>
+  </si>
+  <si>
+    <t>Mast Malaysia</t>
+  </si>
+  <si>
+    <t>11999;;;15999;;;21999</t>
+  </si>
+  <si>
+    <t>Maldives 3N</t>
+  </si>
+  <si>
+    <t>44999;;;50999;;;60999</t>
+  </si>
+  <si>
+    <t>Maldives 4N</t>
+  </si>
+  <si>
+    <t>49999;;;55999;;;64999</t>
+  </si>
+  <si>
+    <t>21999;;;25999;;;30999</t>
+  </si>
+  <si>
+    <t>23999;;;28999;;;33999</t>
+  </si>
+  <si>
+    <t>Port Louis 3N</t>
+  </si>
+  <si>
+    <t>56999;;;60999;;;64999</t>
+  </si>
+  <si>
+    <t>Port Louis 4N</t>
+  </si>
+  <si>
+    <t>54999;;;63999;;;67999</t>
+  </si>
+  <si>
+    <t>10999;;;14999;;;17999</t>
+  </si>
+  <si>
+    <t>13999;;;16999;;;21999</t>
+  </si>
+  <si>
+    <t>Beautiful Bali</t>
+  </si>
+  <si>
+    <t>Bali 3N</t>
+  </si>
+  <si>
+    <t>38999;;;44999;49999</t>
+  </si>
+  <si>
+    <t>Bali 4N</t>
+  </si>
+  <si>
+    <t>South China</t>
+  </si>
+  <si>
+    <t>Hong Kong Special</t>
+  </si>
+  <si>
+    <t>Half Day Hongkong city Tour</t>
+  </si>
+  <si>
+    <t>Hong Kong 4N</t>
+  </si>
+  <si>
+    <t>48599;;;54999;;;59999</t>
+  </si>
+  <si>
+    <t>Hong Kong &amp; Macau</t>
+  </si>
+  <si>
+    <t>50999;;;56999;;;60999</t>
+  </si>
+  <si>
+    <t>26999;;;31999;;;35999</t>
+  </si>
+  <si>
+    <t>31999;;;36999;;;42999</t>
+  </si>
+  <si>
+    <t>Golden Triangle Tour</t>
+  </si>
+  <si>
+    <t>9999;;;12999;;;15999</t>
+  </si>
+  <si>
+    <t>8999;;;11999;;;14999</t>
+  </si>
+  <si>
+    <t>7999;;;10999;;;13999</t>
+  </si>
+  <si>
+    <t>Same Day Taj Mahal Tour</t>
+  </si>
+  <si>
+    <t>Agra 1N</t>
+  </si>
+  <si>
+    <t>5999;;;7999;;;11999</t>
+  </si>
+  <si>
+    <t>Rajasthan Tour</t>
+  </si>
+  <si>
+    <t>15999;;;18999;;;24999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half day Dubai city tour ;;; Dhow cruise ;;; Desert Safari with Dinner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visa ;;; GST 4.5% ;;; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangkok Half day city tour ;;; Coral island tour </t>
+  </si>
+  <si>
+    <t>Bangkok ;;; Pattaya</t>
+  </si>
+  <si>
+    <t>Bangkok 2N ;;; Pattaya 3N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Fare;;;Visa ;;; GST 4.5% ;;; </t>
+  </si>
+  <si>
+    <t>Bangkok 1N ;;; Pattaya 2N</t>
+  </si>
+  <si>
+    <t>Bangkok 2N ;;; Pattaya 2N</t>
+  </si>
+  <si>
+    <t>Fareast ;;; Thailand ;;; Phuket</t>
+  </si>
+  <si>
+    <t>Bangkok 1N ;;;Phuket 3N</t>
+  </si>
+  <si>
+    <t>Fareast ;;; Thailand ;;; Phuket;;;Karabi</t>
+  </si>
+  <si>
+    <t>Phuket  Half day city tour;;; Krabi Four Island Tour</t>
+  </si>
+  <si>
+    <t>Phuket 3N ;;; Karabi 2N</t>
+  </si>
+  <si>
+    <t>Fareast ;;; Singapore</t>
+  </si>
+  <si>
+    <t>Santosa;;;Night Safari;;; Universal Studio</t>
+  </si>
+  <si>
+    <t>Visa ;;; GST 4.5% ;;; Any other services not mentioned in Inclusions</t>
+  </si>
+  <si>
+    <t>Fareast ;;; Singapore;;;Malaysia;;;Genting Highlands</t>
+  </si>
+  <si>
+    <t>Singapore;;;Malaysia</t>
+  </si>
+  <si>
+    <t>Singapore City 3N ;;;Kuala Lumpur 2N;;;Genting Highlands 1N</t>
+  </si>
+  <si>
+    <t>Fareast ;;; Singapore;;;Kuala lumpur</t>
+  </si>
+  <si>
+    <t>Santosa;;; Universal Studio</t>
+  </si>
+  <si>
+    <t>Singapore City 3N ;;;Kuala Lumpur 3N</t>
+  </si>
+  <si>
+    <t>Sentosa;;;Night Safari;;; Universal Studio</t>
+  </si>
+  <si>
+    <t>Fareast ;;;Kuala lumpur;;;Malaysia</t>
+  </si>
+  <si>
+    <t>Sentosa;;; Universal Studio</t>
+  </si>
+  <si>
+    <t>Fareast ;;;Singapore;;;Malaysia</t>
+  </si>
+  <si>
+    <t>Half-day city tour in Kuala Lumpur;;;Universal;;; Sentosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3N Singapore ;;; 3N Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Fareast ;;;Malaysia;;; Langkawi ;;; Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Half-day city tour in Kuala Lumpur;;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2N Langkawi ;;; 2N Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Asia;;;Maldives</t>
+  </si>
+  <si>
+    <t>East Africa;;;Port Louis;;;Mauritius</t>
+  </si>
+  <si>
+    <t>Asia;;;Indonesia;;;Bali</t>
+  </si>
+  <si>
+    <t>Half day City Tour;;;full day Kintamani tour with Ubud Village</t>
+  </si>
+  <si>
+    <t>South China;;;Hong Kong;;; Macau</t>
+  </si>
+  <si>
+    <t>Half Day Hongkong city Tour;;;Full Day Tour of Macau with Western Lunch.</t>
+  </si>
+  <si>
+    <t>Hong Kong 2N;;;Macau 2N</t>
+  </si>
+  <si>
+    <t>Delhi;;; Agra;;;Jaipur;;;India</t>
+  </si>
+  <si>
+    <t>GST 4.5% ;;; Any other services not mentioned in Inclusions</t>
+  </si>
+  <si>
+    <t>Delhi 1N;;;Agra 2N;;; Jaipur 2N</t>
+  </si>
+  <si>
+    <t>Delhi 1N;;;Agra 1N;;; Jaipur 2N</t>
+  </si>
+  <si>
+    <t>Delhi 1N;;;Agra 1N;;; Jaipur 1N</t>
+  </si>
+  <si>
+    <t>Jaipur 1N;;;Jodhpur 01 ;;;Udaipur 2N</t>
+  </si>
+  <si>
+    <t>Phuket &amp; Bangkok</t>
+  </si>
+  <si>
+    <t>Phuket &amp; Karabi</t>
+  </si>
+  <si>
+    <t>Singapore &amp; Malaysia</t>
+  </si>
+  <si>
+    <t>Singapore &amp; Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Genting Highland &amp; Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Malaysia, Langkawi &amp; Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Mauritius &amp; Port Louis</t>
+  </si>
+  <si>
+    <t>Delhi &amp; Agra</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Karabi</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Genting Highland</t>
+  </si>
+  <si>
+    <t>Langkawi</t>
+  </si>
+  <si>
+    <t>Port Louis</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Delhi, Agra &amp; Jaipur</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Jaipur, Jodhpur &amp; Rajasthan</t>
+  </si>
+  <si>
+    <t>Jodhpur</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Jaipur;;;Rajasthan;;;Jodhour;;;Udaipur;;;India</t>
   </si>
 </sst>
 </file>
@@ -831,13 +1293,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1137,12 +1602,12 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
   </cols>
@@ -1160,7 +1625,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1171,7 +1636,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1182,7 +1647,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>220</v>
+        <v>392</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1192,6 +1657,9 @@
       </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1200,6 +1668,9 @@
       </c>
     </row>
     <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1208,6 +1679,9 @@
       </c>
     </row>
     <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1216,6 +1690,9 @@
       </c>
     </row>
     <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1224,6 +1701,9 @@
       </c>
     </row>
     <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1232,6 +1712,9 @@
       </c>
     </row>
     <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1240,6 +1723,9 @@
       </c>
     </row>
     <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>393</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1248,6 +1734,9 @@
       </c>
     </row>
     <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>394</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1256,6 +1745,9 @@
       </c>
     </row>
     <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1264,96 +1756,123 @@
       </c>
     </row>
     <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2">
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2">
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2">
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2">
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2">
       <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2">
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2">
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2">
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2">
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1969,6 +2488,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A24">
+    <sortCondition ref="A2"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://www.roughguides.com/country/abu-dhabi/"/>
     <hyperlink ref="B3" r:id="rId2" display="http://www.roughguides.com/country/afghanistan/"/>
@@ -2514,30 +3036,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.25" style="1" customWidth="1"/>
     <col min="18" max="19" width="9" style="1"/>
     <col min="20" max="20" width="16.75" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
@@ -2545,10 +3068,10 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>216</v>
@@ -2557,106 +3080,108 @@
         <v>217</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>219</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>214</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>215</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18.75" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="5">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
         <v>226</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>227</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -2665,164 +3190,2980 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+    <row r="3" spans="1:21" ht="45">
+      <c r="A3" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
-        <v>229</v>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>227</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="45">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
-        <v>231</v>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="45">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>227</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4" t="s">
-        <v>188</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="45">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="45">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="45">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="5">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" ht="45">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" ht="45">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" ht="45">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" ht="45">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="45">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="45">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="45">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="45">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="45">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="45">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="45">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="45">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="45">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="45">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="45">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="45">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="5">
+        <v>6</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="45">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="5">
+        <v>6</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="45">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F27" s="5">
+        <v>3</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="45">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="5">
+        <v>4</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="45">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F29" s="5">
+        <v>5</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="45">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F30" s="5">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="45">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F31" s="5">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="45">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F32" s="5">
+        <v>4</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="45">
+      <c r="A33" s="1">
+        <v>5</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F33" s="5">
+        <v>4</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="45">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" s="5">
+        <v>6</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="45">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F35" s="5">
+        <v>6</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="45">
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F36" s="5">
+        <v>4</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="45">
+      <c r="A37" s="1">
+        <v>5</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F37" s="5">
+        <v>4</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="45">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="45">
+      <c r="A39" s="1">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="5">
+        <v>4</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="45">
+      <c r="A40" s="1">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="5">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="45">
+      <c r="A41" s="1">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="5">
+        <v>4</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="45">
+      <c r="A42" s="1">
+        <v>7</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="45">
+      <c r="A43" s="1">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="5">
+        <v>4</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="45">
+      <c r="A44" s="1">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="5">
+        <v>3</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="45">
+      <c r="A45" s="1">
+        <v>7</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="5">
+        <v>4</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="45">
+      <c r="A46" s="1">
+        <v>8</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F46" s="5">
+        <v>3</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="45">
+      <c r="A47" s="1">
+        <v>9</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="5">
+        <v>4</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="45">
+      <c r="A48" s="1">
+        <v>9</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="5">
+        <v>3</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="45">
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="5">
+        <v>4</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="45">
+      <c r="A50" s="1">
+        <v>10</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F50" s="5">
+        <v>4</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="45">
+      <c r="A51" s="1">
+        <v>10</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F51" s="5">
+        <v>4</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="45">
+      <c r="A52" s="1">
+        <v>10</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F52" s="5">
+        <v>4</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="45">
+      <c r="A53" s="1">
+        <v>10</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F53" s="5">
+        <v>4</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="45">
+      <c r="A54" s="1">
+        <v>11</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F54" s="5">
+        <v>5</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="45">
+      <c r="A55" s="1">
+        <v>11</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F55" s="5">
+        <v>4</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="45">
+      <c r="A56" s="1">
+        <v>11</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F56" s="5">
+        <v>3</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="45">
+      <c r="A57" s="1">
+        <v>11</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="45">
+      <c r="A58" s="1">
+        <v>12</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F58" s="5">
+        <v>5</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/goTripcyContent/resources/excel/data.xlsx
+++ b/goTripcyContent/resources/excel/data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="477">
   <si>
     <t>Going</t>
   </si>
@@ -1245,6 +1245,210 @@
   </si>
   <si>
     <t>Jaipur;;;Rajasthan;;;Jodhour;;;Udaipur;;;India</t>
+  </si>
+  <si>
+    <t>Golden Triangle &amp; Wildlife Tour</t>
+  </si>
+  <si>
+    <t>20999;;;26999;;;32499</t>
+  </si>
+  <si>
+    <t>Royal Rajasthan</t>
+  </si>
+  <si>
+    <t>Delhi, Agra, Jaipur &amp; Ranthambore</t>
+  </si>
+  <si>
+    <t>35999;;;44999;;;49999</t>
+  </si>
+  <si>
+    <t>Delhi, Udaipur, Jodhpur, Jaisalmer, Bikaner, Jaipur, Agra &amp; Delhi</t>
+  </si>
+  <si>
+    <t>Jaipur, Pushkar, Jodhpur, Jaisalmer, Bikaner &amp; Jaipur</t>
+  </si>
+  <si>
+    <t>Best of Rajasthan</t>
+  </si>
+  <si>
+    <t>26999;;;30999;;;35999</t>
+  </si>
+  <si>
+    <t>Golden Triangle with Wildlife Experince</t>
+  </si>
+  <si>
+    <t>Delhi, Jaipur, Ranthambore, Agra &amp; Delhi</t>
+  </si>
+  <si>
+    <t>Delhi, Agra, Fatehpur Sikri, Jaipur, Jodhpur, Udaipur &amp; Delhi</t>
+  </si>
+  <si>
+    <t>Wonder of Rajasthan with Taj</t>
+  </si>
+  <si>
+    <t>20999;;;26999;;;32999</t>
+  </si>
+  <si>
+    <t>Amazing Goa</t>
+  </si>
+  <si>
+    <t>Goa 3N</t>
+  </si>
+  <si>
+    <t>8999;;;11999;;;18999</t>
+  </si>
+  <si>
+    <t>Grand Goa</t>
+  </si>
+  <si>
+    <t>Romantic Goa</t>
+  </si>
+  <si>
+    <t>Goa 4N</t>
+  </si>
+  <si>
+    <t>Goa 5N</t>
+  </si>
+  <si>
+    <t>10999;;;14999;;;21999</t>
+  </si>
+  <si>
+    <t>18999;;;21999;;;28999</t>
+  </si>
+  <si>
+    <t>20999;;;24999;;;31999</t>
+  </si>
+  <si>
+    <t>Delhi;;; Agra;;;Jaipur;;;Rajasthan;;;Jodhpur;;;Udaipur;;;Jaisalmer;;;Bikaner;;;India</t>
+  </si>
+  <si>
+    <t>Delhi 1N;;;Jaipur 2N ;;;Ranthambore 2N;;;Agra 1N</t>
+  </si>
+  <si>
+    <t>Delhi;;;Udaipur;;;Jodhpur;;;Jaisalmer;;;Bikaner;;;Jaipur;;;Agra;;;Delhi</t>
+  </si>
+  <si>
+    <t>Delhi 1N;;;Udaipur 2N;;;Jodhpur 1N;;;Jaisalmer 2N;;;Bikaner 1N|Jaipur 2N|Agra 1N</t>
+  </si>
+  <si>
+    <t>Jaipur;;;Pushkar;;;Jodhpur;;;Jaisalmer;;;Bikaner;;;Jaipur;;;Rajasthan;;;India</t>
+  </si>
+  <si>
+    <t>Jaipur 2N ;;;Pushkar 1N;;;Jodhpur 2N;;;Jaisalmer 2N;;;Bikaner 1N|</t>
+  </si>
+  <si>
+    <t>Delhi ;;;Jaipur;;;Ranthambore ;;;Agra;;;Delhi;;;Rajasthan;;;India</t>
+  </si>
+  <si>
+    <t>Delhi 1N;;;Jaipur 2N;;;Ranthambore 2N ;;;Agra 2N;;;</t>
+  </si>
+  <si>
+    <t>Delhi;;;Agra;;;Fatehpur Sikri;;;Jaipur;;;Jodhpur;;; Udaipur ;;;Rajasthan;;;India</t>
+  </si>
+  <si>
+    <t>Delhi 2N;;;Agra 2N;;;Jaipur 2N;;;Jodhpur 2N;;; Udaipur 2N ;;;</t>
+  </si>
+  <si>
+    <t>Goa ;;;India</t>
+  </si>
+  <si>
+    <t>Ranthambore</t>
+  </si>
+  <si>
+    <t>Udaipur</t>
+  </si>
+  <si>
+    <t>Jaisalmer</t>
+  </si>
+  <si>
+    <t>Bikaner</t>
+  </si>
+  <si>
+    <t>Pushkar</t>
+  </si>
+  <si>
+    <t>Fatehpur Sikri</t>
+  </si>
+  <si>
+    <t>Bali01</t>
+  </si>
+  <si>
+    <t>Bali02</t>
+  </si>
+  <si>
+    <t>Bali03</t>
+  </si>
+  <si>
+    <t>Bali04</t>
+  </si>
+  <si>
+    <t>Bkk01</t>
+  </si>
+  <si>
+    <t>Bkk02</t>
+  </si>
+  <si>
+    <t>Bkk03</t>
+  </si>
+  <si>
+    <t>Bkk04</t>
+  </si>
+  <si>
+    <t>Bkk05</t>
+  </si>
+  <si>
+    <t>Bkk06</t>
+  </si>
+  <si>
+    <t>Pty01</t>
+  </si>
+  <si>
+    <t>Pty02</t>
+  </si>
+  <si>
+    <t>Pty03</t>
+  </si>
+  <si>
+    <t>Pty04</t>
+  </si>
+  <si>
+    <t>Phuket01</t>
+  </si>
+  <si>
+    <t>Phuket02</t>
+  </si>
+  <si>
+    <t>Sin01</t>
+  </si>
+  <si>
+    <t>Sin02</t>
+  </si>
+  <si>
+    <t>Sin03</t>
+  </si>
+  <si>
+    <t>Sin04</t>
+  </si>
+  <si>
+    <t>Sin05</t>
+  </si>
+  <si>
+    <t>Sin06</t>
+  </si>
+  <si>
+    <t>Sin07</t>
+  </si>
+  <si>
+    <t>Sin08</t>
+  </si>
+  <si>
+    <t>Sin09</t>
+  </si>
+  <si>
+    <t>Sin10</t>
+  </si>
+  <si>
+    <t>Kula02</t>
   </si>
 </sst>
 </file>
@@ -1599,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1610,9 +1814,10 @@
     <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="49.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,8 +1827,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>402</v>
       </c>
@@ -1633,8 +1839,9 @@
       <c r="C2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
@@ -1644,8 +1851,9 @@
       <c r="C3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>392</v>
       </c>
@@ -1655,10 +1863,11 @@
       <c r="C4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1666,10 +1875,11 @@
       <c r="C5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>401</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -1677,10 +1887,11 @@
       <c r="C6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>395</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1688,10 +1899,11 @@
       <c r="C7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1700,9 +1912,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -1711,9 +1923,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>405</v>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1722,9 +1934,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>393</v>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -1733,9 +1945,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>394</v>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -1744,9 +1956,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -1755,33 +1967,33 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>87</v>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>204</v>
+      <c r="A17" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
@@ -1789,31 +2001,31 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>406</v>
+      <c r="A19" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>123</v>
+      <c r="A20" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>137</v>
+      <c r="A21" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
@@ -1821,43 +2033,64 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2488,7 +2721,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A24">
+  <sortState ref="A2:A29">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
@@ -3036,10 +3269,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3619,6 +3854,9 @@
         <v>265</v>
       </c>
       <c r="S10" s="5"/>
+      <c r="U10" s="1" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="45">
       <c r="A11" s="1">
@@ -3673,6 +3911,9 @@
         <v>267</v>
       </c>
       <c r="S11" s="5"/>
+      <c r="U11" s="1" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="45">
       <c r="A12" s="1">
@@ -3727,6 +3968,9 @@
         <v>268</v>
       </c>
       <c r="S12" s="5"/>
+      <c r="U12" s="1" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="45">
       <c r="A13" s="1">
@@ -3780,6 +4024,9 @@
       <c r="Q13" s="5" t="s">
         <v>267</v>
       </c>
+      <c r="U13" s="1" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="45">
       <c r="A14" s="1">
@@ -3833,6 +4080,9 @@
       <c r="Q14" s="5" t="s">
         <v>265</v>
       </c>
+      <c r="U14" s="1" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="45">
       <c r="A15" s="1">
@@ -3886,6 +4136,9 @@
       <c r="Q15" s="5" t="s">
         <v>268</v>
       </c>
+      <c r="U15" s="1" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="45">
       <c r="A16" s="1">
@@ -3939,8 +4192,11 @@
       <c r="Q16" s="5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="45">
+      <c r="U16" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="45">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -3992,8 +4248,11 @@
       <c r="Q17" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="45">
+      <c r="U17" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="45">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -4045,8 +4304,11 @@
       <c r="Q18" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="45">
+      <c r="U18" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="45">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -4098,8 +4360,11 @@
       <c r="Q19" s="5" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="45">
+      <c r="U19" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="45">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -4151,8 +4416,11 @@
       <c r="Q20" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="45">
+      <c r="U20" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="45">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -4204,8 +4472,11 @@
       <c r="Q21" s="5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="45">
+      <c r="U21" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="45">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -4257,8 +4528,11 @@
       <c r="Q22" s="5" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="45">
+      <c r="U22" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="45">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -4310,8 +4584,11 @@
       <c r="Q23" s="5" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="45">
+      <c r="U23" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="45">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -4363,8 +4640,11 @@
       <c r="Q24" s="5" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="45">
+      <c r="U24" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="45">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -4416,8 +4696,11 @@
       <c r="Q25" s="5" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="45">
+      <c r="U25" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="45">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -4469,8 +4752,11 @@
       <c r="Q26" s="5" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="45">
+      <c r="U26" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="45">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -4522,8 +4808,11 @@
       <c r="Q27" s="5" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="45">
+      <c r="U27" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="45">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -4575,8 +4864,11 @@
       <c r="Q28" s="5" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="45">
+      <c r="U28" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="45">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -4628,8 +4920,11 @@
       <c r="Q29" s="5" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="45">
+      <c r="U29" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="45">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -4681,8 +4976,11 @@
       <c r="Q30" s="5" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="45">
+      <c r="U30" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="45">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -4734,8 +5032,11 @@
       <c r="Q31" s="5" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="45">
+      <c r="U31" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="45">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -4788,7 +5089,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="45">
+    <row r="33" spans="1:21" ht="45">
       <c r="A33" s="1">
         <v>5</v>
       </c>
@@ -4841,7 +5142,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="45">
+    <row r="34" spans="1:21" ht="45">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -4893,8 +5194,11 @@
       <c r="Q34" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="45">
+      <c r="U34" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="45">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -4946,8 +5250,11 @@
       <c r="Q35" s="5" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="45">
+      <c r="U35" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="45">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -5000,7 +5307,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="45">
+    <row r="37" spans="1:21" ht="45">
       <c r="A37" s="1">
         <v>5</v>
       </c>
@@ -5053,7 +5360,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="45">
+    <row r="38" spans="1:21" ht="45">
       <c r="A38" s="1">
         <v>6</v>
       </c>
@@ -5106,7 +5413,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="45">
+    <row r="39" spans="1:21" ht="45">
       <c r="A39" s="1">
         <v>6</v>
       </c>
@@ -5159,7 +5466,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="45">
+    <row r="40" spans="1:21" ht="45">
       <c r="A40" s="1">
         <v>6</v>
       </c>
@@ -5212,7 +5519,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="45">
+    <row r="41" spans="1:21" ht="45">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -5265,7 +5572,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="45">
+    <row r="42" spans="1:21" ht="45">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -5318,7 +5625,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="45">
+    <row r="43" spans="1:21" ht="45">
       <c r="A43" s="1">
         <v>7</v>
       </c>
@@ -5371,7 +5678,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="45">
+    <row r="44" spans="1:21" ht="45">
       <c r="A44" s="1">
         <v>7</v>
       </c>
@@ -5424,7 +5731,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="45">
+    <row r="45" spans="1:21" ht="45">
       <c r="A45" s="1">
         <v>7</v>
       </c>
@@ -5477,7 +5784,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="45">
+    <row r="46" spans="1:21" ht="45">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -5529,8 +5836,11 @@
       <c r="Q46" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="45">
+      <c r="U46" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="45">
       <c r="A47" s="1">
         <v>9</v>
       </c>
@@ -5582,8 +5892,11 @@
       <c r="Q47" s="5" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="45">
+      <c r="U47" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="45">
       <c r="A48" s="1">
         <v>9</v>
       </c>
@@ -5635,8 +5948,11 @@
       <c r="Q48" s="5" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="45">
+      <c r="U48" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="45">
       <c r="A49" s="1">
         <v>9</v>
       </c>
@@ -5688,8 +6004,11 @@
       <c r="Q49" s="5" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="45">
+      <c r="U49" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="45">
       <c r="A50" s="1">
         <v>10</v>
       </c>
@@ -5742,7 +6061,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="45">
+    <row r="51" spans="1:21" ht="45">
       <c r="A51" s="1">
         <v>10</v>
       </c>
@@ -5795,7 +6114,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="45">
+    <row r="52" spans="1:21" ht="45">
       <c r="A52" s="1">
         <v>10</v>
       </c>
@@ -5848,7 +6167,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="45">
+    <row r="53" spans="1:21" ht="45">
       <c r="A53" s="1">
         <v>10</v>
       </c>
@@ -5901,7 +6220,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="45">
+    <row r="54" spans="1:21" ht="45">
       <c r="A54" s="1">
         <v>11</v>
       </c>
@@ -5954,7 +6273,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="45">
+    <row r="55" spans="1:21" ht="45">
       <c r="A55" s="1">
         <v>11</v>
       </c>
@@ -6007,7 +6326,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="45">
+    <row r="56" spans="1:21" ht="45">
       <c r="A56" s="1">
         <v>11</v>
       </c>
@@ -6060,7 +6379,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="45">
+    <row r="57" spans="1:21" ht="45">
       <c r="A57" s="1">
         <v>11</v>
       </c>
@@ -6113,7 +6432,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="45">
+    <row r="58" spans="1:21" ht="45">
       <c r="A58" s="1">
         <v>12</v>
       </c>
@@ -6165,6 +6484,599 @@
       <c r="Q58" s="5" t="s">
         <v>339</v>
       </c>
+    </row>
+    <row r="59" spans="1:21" ht="45">
+      <c r="A59" s="1">
+        <v>13</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F59" s="5">
+        <v>6</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="45">
+      <c r="A60" s="1">
+        <v>14</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F60" s="5">
+        <v>10</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="45">
+      <c r="A61" s="1">
+        <v>15</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F61" s="5">
+        <v>8</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="45">
+      <c r="A62" s="1">
+        <v>16</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F62" s="5">
+        <v>7</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="45">
+      <c r="A63" s="1">
+        <v>17</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F63" s="5">
+        <v>10</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="45">
+      <c r="A64" s="1">
+        <v>18</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F64" s="5">
+        <v>3</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="45">
+      <c r="A65" s="1">
+        <v>18</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F65" s="5">
+        <v>4</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="45">
+      <c r="A66" s="1">
+        <v>18</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F66" s="5">
+        <v>5</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="45">
+      <c r="A67" s="1">
+        <v>18</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F67" s="5">
+        <v>3</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="45">
+      <c r="A68" s="1">
+        <v>18</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F68" s="5">
+        <v>4</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="45">
+      <c r="A69" s="1">
+        <v>18</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F69" s="5">
+        <v>5</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="O70" s="4"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="O71" s="4"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="O72" s="4"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="O73" s="4"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="Q74" s="5"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="Q75" s="5"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="Q76" s="5"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="Q77" s="5"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="Q78" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
